--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1137049.231008524</v>
+        <v>1113994.882641359</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>989764.2973544764</v>
+        <v>989764.2973544765</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8139988.559740229</v>
+        <v>8139988.559740239</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>158.9897392454093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>194.6998530054177</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>32.49138749858583</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>121.9722865630709</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.89518631743307</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6751203255737</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>47.67973123751813</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.7911312916796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.3942075973688</v>
+        <v>63.07618390047807</v>
       </c>
       <c r="H11" t="n">
         <v>319.9290700954439</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>29.98242549426743</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>102.3732509239337</v>
       </c>
       <c r="I12" t="n">
-        <v>54.23849592879126</v>
+        <v>54.23849592879127</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943768</v>
       </c>
       <c r="S12" t="n">
         <v>152.7156921398491</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.1348785408378</v>
       </c>
       <c r="H13" t="n">
-        <v>154.6156579653187</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48.70822382239125</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.2752114285378</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.8972899157237</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.98242549426742</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>165.5294440851476</v>
       </c>
       <c r="T14" t="n">
-        <v>97.95381575091206</v>
+        <v>2.425155248503861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>102.3732509239337</v>
       </c>
       <c r="I15" t="n">
-        <v>54.23849592879126</v>
+        <v>54.23849592879127</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943768</v>
       </c>
       <c r="S15" t="n">
         <v>152.7156921398491</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>46.55894696680438</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.27211134512444</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>209.0970956062507</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>224.2877041166283</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.272332948257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,22 +1847,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>211.6698949662708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.3942075973688</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>319.9290700954439</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.8972899157237</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.98242549426742</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>165.5294440851476</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>292.368236388088</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>102.3732509239337</v>
       </c>
       <c r="I18" t="n">
-        <v>54.23849592879126</v>
+        <v>54.23849592879127</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943768</v>
       </c>
       <c r="S18" t="n">
         <v>152.7156921398491</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.9282935975106</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>154.6156579653187</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>272.2686023558413</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>179.1854221937765</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,10 +2096,10 @@
         <v>413.3942075973688</v>
       </c>
       <c r="H20" t="n">
-        <v>319.9290700954439</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.8972899157237</v>
+        <v>26.71843001080078</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>29.98242549426742</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>102.3732509239337</v>
       </c>
       <c r="I21" t="n">
-        <v>54.23849592879126</v>
+        <v>54.23849592879127</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943768</v>
       </c>
       <c r="S21" t="n">
         <v>152.7156921398491</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>105.2724466455475</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1348785408378</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>138.7999855230492</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>209.0970956062507</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>224.2877041166283</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>71.6095802294945</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>56.70826907239098</v>
       </c>
       <c r="H23" t="n">
         <v>319.9290700954439</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.98242549426742</v>
+        <v>29.98242549426743</v>
       </c>
       <c r="S23" t="n">
-        <v>165.5294440851476</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>46.16866581660283</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>102.3732509239337</v>
       </c>
       <c r="I24" t="n">
-        <v>54.23849592879126</v>
+        <v>54.23849592879127</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943768</v>
       </c>
       <c r="S24" t="n">
         <v>152.7156921398491</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>81.53388821094617</v>
       </c>
       <c r="D25" t="n">
-        <v>19.55613399456345</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>224.2877041166283</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.3942075973688</v>
+        <v>95.97422264787899</v>
       </c>
       <c r="H26" t="n">
         <v>319.9290700954439</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.98242549426742</v>
+        <v>29.98242549426743</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>165.5294440851476</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.385810893821</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>102.3732509239337</v>
       </c>
       <c r="I27" t="n">
-        <v>54.23849592879126</v>
+        <v>54.23849592879127</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943768</v>
       </c>
       <c r="S27" t="n">
         <v>152.7156921398491</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>272.2686023558413</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>186.8029550931913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.65597810862912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>330.6476857708098</v>
       </c>
       <c r="G29" t="n">
         <v>413.3942075973688</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.98242549426742</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>165.5294440851476</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943766</v>
       </c>
       <c r="S30" t="n">
         <v>152.7156921398491</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>23.37995904798283</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>48.23156362754765</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>224.2877041166283</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>112.188772120614</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,10 +3044,10 @@
         <v>413.3942075973688</v>
       </c>
       <c r="H32" t="n">
-        <v>177.2500619326989</v>
+        <v>319.9290700954439</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.8972899157237</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943766</v>
       </c>
       <c r="S33" t="n">
         <v>152.7156921398491</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07706068908216</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1348785408378</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>32.83285231087136</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>14.47527387799798</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>138.7999855230492</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>112.839143967048</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.3942075973688</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.257480118328695</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>175.9169261087435</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>36.75674035943767</v>
+        <v>36.75674035943766</v>
       </c>
       <c r="S36" t="n">
         <v>152.7156921398491</v>
@@ -3427,25 +3427,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.78565600874782</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.1348785408378</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>154.6156579653187</v>
       </c>
       <c r="I37" t="n">
         <v>129.7051885209845</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>32.83285231087136</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>168.9914017696478</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>366.113029870363</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>347.9085986854172</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.3942075973688</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>165.5294440851476</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.1223858527474</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>224.2877041166283</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.272332948257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>118.8646101086949</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.3942075973688</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.9824254942674</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>182.3743898720605</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>85.42957511243023</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>53.93461439208079</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>46.55894696680475</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.3942075973688</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>319.9290700954439</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>80.94888893618277</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>29.9824254942674</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>165.5294440851476</v>
       </c>
       <c r="T44" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>148.9701219045369</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.47527387799798</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>138.7999855230492</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.0939475503282</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>224.2877041166283</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.272332948257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>46.55894696680448</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.5386780278486</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>1079.559212899076</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1079.559212899076</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>1079.559212899076</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>668.5733081094681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>250.609500007655</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>601.1385180919704</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,31 +4419,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>402.6523129118473</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>255.7623654139369</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>86.76256515226933</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.603677789272</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4610,7 +4610,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>921.2035178533938</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
         <v>562.6765899837193</v>
@@ -4717,10 +4717,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>898.8784838925781</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C8" t="n">
-        <v>898.8784838925781</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D8" t="n">
-        <v>898.8784838925781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E8" t="n">
-        <v>513.0902312943338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F8" t="n">
-        <v>102.1043265047262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y8" t="n">
-        <v>898.8784838925781</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2456.956029107435</v>
+        <v>579.0970665796026</v>
       </c>
       <c r="C11" t="n">
-        <v>2087.993512167024</v>
+        <v>579.0970665796026</v>
       </c>
       <c r="D11" t="n">
-        <v>1729.727813560273</v>
+        <v>579.0970665796026</v>
       </c>
       <c r="E11" t="n">
-        <v>1343.939560962029</v>
+        <v>579.0970665796026</v>
       </c>
       <c r="F11" t="n">
-        <v>932.9536561724215</v>
+        <v>579.0970665796026</v>
       </c>
       <c r="G11" t="n">
-        <v>515.3837495084125</v>
+        <v>515.3837495084126</v>
       </c>
       <c r="H11" t="n">
         <v>192.2230726443278</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>202.4774355562286</v>
@@ -5054,37 +5054,37 @@
         <v>1674.091455311298</v>
       </c>
       <c r="O11" t="n">
-        <v>2141.636567434159</v>
+        <v>2141.636567434158</v>
       </c>
       <c r="P11" t="n">
         <v>2503.001120685017</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2666.863812741185</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2666.863812741185</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2666.863812741185</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2413.133539494301</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>2082.07065215073</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>1729.301996880616</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018223</v>
+        <v>1355.836238619536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018223</v>
+        <v>965.6969066437243</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>108.729341344396</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>144.6290664744558</v>
+        <v>148.715705219565</v>
       </c>
       <c r="K12" t="n">
-        <v>171.4110044133357</v>
+        <v>437.3182278008977</v>
       </c>
       <c r="L12" t="n">
-        <v>620.8771080741622</v>
+        <v>886.7843314617242</v>
       </c>
       <c r="M12" t="n">
-        <v>1197.362072740141</v>
+        <v>1463.269296127703</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.811892423736</v>
+        <v>1606.37147495167</v>
       </c>
       <c r="O12" t="n">
-        <v>2294.094124228101</v>
+        <v>2095.653706756035</v>
       </c>
       <c r="P12" t="n">
-        <v>2669.783183457226</v>
+        <v>2471.34276598516</v>
       </c>
       <c r="Q12" t="n">
         <v>2669.783183457226</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.0634303216378</v>
+        <v>391.7022743854812</v>
       </c>
       <c r="C13" t="n">
-        <v>873.0634303216378</v>
+        <v>222.7660914575744</v>
       </c>
       <c r="D13" t="n">
-        <v>722.9467909093021</v>
+        <v>222.7660914575744</v>
       </c>
       <c r="E13" t="n">
-        <v>575.033697326909</v>
+        <v>222.7660914575744</v>
       </c>
       <c r="F13" t="n">
-        <v>428.1437498289986</v>
+        <v>222.7660914575744</v>
       </c>
       <c r="G13" t="n">
-        <v>259.3206401917887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1432079035879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>130.3649009555025</v>
       </c>
       <c r="L13" t="n">
-        <v>283.6850809055732</v>
+        <v>283.6850809055731</v>
       </c>
       <c r="M13" t="n">
         <v>455.7288366819382</v>
       </c>
       <c r="N13" t="n">
-        <v>629.1163929044963</v>
+        <v>629.1163929044961</v>
       </c>
       <c r="O13" t="n">
-        <v>773.2515691507308</v>
+        <v>773.2515691507307</v>
       </c>
       <c r="P13" t="n">
-        <v>873.0634303216378</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.0634303216378</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="R13" t="n">
-        <v>873.0634303216378</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="S13" t="n">
-        <v>873.0634303216378</v>
+        <v>680.8662470604884</v>
       </c>
       <c r="T13" t="n">
-        <v>873.0634303216378</v>
+        <v>680.8662470604884</v>
       </c>
       <c r="U13" t="n">
-        <v>873.0634303216378</v>
+        <v>391.7022743854812</v>
       </c>
       <c r="V13" t="n">
-        <v>873.0634303216378</v>
+        <v>391.7022743854812</v>
       </c>
       <c r="W13" t="n">
-        <v>873.0634303216378</v>
+        <v>391.7022743854812</v>
       </c>
       <c r="X13" t="n">
-        <v>873.0634303216378</v>
+        <v>391.7022743854812</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.0634303216378</v>
+        <v>391.7022743854812</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>919.45128819149</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="C14" t="n">
-        <v>550.4887712510783</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D14" t="n">
-        <v>192.2230726443278</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>192.2230726443278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>192.2230726443278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>192.2230726443278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>192.2230726443278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>202.4774355562286</v>
       </c>
       <c r="K14" t="n">
-        <v>422.6893744083095</v>
+        <v>545.836882368935</v>
       </c>
       <c r="L14" t="n">
-        <v>900.9337576408818</v>
+        <v>1024.081265601507</v>
       </c>
       <c r="M14" t="n">
-        <v>1449.679327287524</v>
+        <v>1131.098606197756</v>
       </c>
       <c r="N14" t="n">
-        <v>1992.672176401066</v>
+        <v>1674.091455311298</v>
       </c>
       <c r="O14" t="n">
-        <v>2460.217288523927</v>
+        <v>2141.636567434158</v>
       </c>
       <c r="P14" t="n">
         <v>2503.001120685017</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2666.863812741185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2499.662354069319</v>
+        <v>2529.947632346356</v>
       </c>
       <c r="T14" t="n">
-        <v>2400.719105836074</v>
+        <v>2527.49798058019</v>
       </c>
       <c r="U14" t="n">
-        <v>2400.719105836074</v>
+        <v>2273.767707333307</v>
       </c>
       <c r="V14" t="n">
-        <v>2069.656218492503</v>
+        <v>1942.704819989736</v>
       </c>
       <c r="W14" t="n">
-        <v>2069.656218492503</v>
+        <v>1589.936164719622</v>
       </c>
       <c r="X14" t="n">
-        <v>1696.190460231423</v>
+        <v>1216.470406458542</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.051128255612</v>
+        <v>826.3310744827304</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>108.729341344396</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>80.72491975924441</v>
+        <v>342.5455044016971</v>
       </c>
       <c r="L15" t="n">
-        <v>530.1910234200709</v>
+        <v>792.0116080625236</v>
       </c>
       <c r="M15" t="n">
-        <v>1106.67598808605</v>
+        <v>1368.496572728503</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.125807769645</v>
+        <v>1975.946392412098</v>
       </c>
       <c r="O15" t="n">
-        <v>2203.40803957401</v>
+        <v>2465.228624216462</v>
       </c>
       <c r="P15" t="n">
-        <v>2579.097098803134</v>
+        <v>2669.783183457226</v>
       </c>
       <c r="Q15" t="n">
         <v>2669.783183457226</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>100.9722211807729</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>100.9722211807729</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>100.9722211807729</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>100.9722211807729</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>130.3649009555025</v>
       </c>
       <c r="L16" t="n">
-        <v>283.6850809055732</v>
+        <v>283.6850809055731</v>
       </c>
       <c r="M16" t="n">
         <v>455.7288366819382</v>
       </c>
       <c r="N16" t="n">
-        <v>629.1163929044963</v>
+        <v>629.1163929044961</v>
       </c>
       <c r="O16" t="n">
-        <v>773.2515691507308</v>
+        <v>773.2515691507307</v>
       </c>
       <c r="P16" t="n">
-        <v>873.0634303216378</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="Q16" t="n">
-        <v>873.0634303216378</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="R16" t="n">
-        <v>780.8693784578758</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="S16" t="n">
-        <v>569.6601909768144</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1069544953716</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>873.0634303216377</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>618.3789421157509</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>328.9617720787903</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>100.9722211807729</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>100.9722211807729</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>645.728335291536</v>
+        <v>2465.970890924791</v>
       </c>
       <c r="C17" t="n">
-        <v>276.7658183511243</v>
+        <v>2097.008373984379</v>
       </c>
       <c r="D17" t="n">
-        <v>276.7658183511243</v>
+        <v>1738.742675377628</v>
       </c>
       <c r="E17" t="n">
-        <v>276.7658183511243</v>
+        <v>1352.954422779384</v>
       </c>
       <c r="F17" t="n">
-        <v>62.95784363771944</v>
+        <v>941.9685179897765</v>
       </c>
       <c r="G17" t="n">
-        <v>62.95784363771944</v>
+        <v>524.3986113257675</v>
       </c>
       <c r="H17" t="n">
-        <v>62.95784363771944</v>
+        <v>201.2379344616828</v>
       </c>
       <c r="I17" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J17" t="n">
-        <v>211.4922973735831</v>
+        <v>211.4922973735836</v>
       </c>
       <c r="K17" t="n">
-        <v>554.8517441862898</v>
+        <v>554.85174418629</v>
       </c>
       <c r="L17" t="n">
         <v>1033.096127418862</v>
@@ -5525,40 +5525,40 @@
         <v>1581.841697065504</v>
       </c>
       <c r="N17" t="n">
-        <v>2124.834546179047</v>
+        <v>2124.834546179046</v>
       </c>
       <c r="O17" t="n">
-        <v>2592.379658301908</v>
+        <v>2592.379658301907</v>
       </c>
       <c r="P17" t="n">
         <v>2953.744211552766</v>
       </c>
       <c r="Q17" t="n">
-        <v>3147.892181885972</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="R17" t="n">
-        <v>3117.606903608934</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="S17" t="n">
-        <v>2950.405444937067</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="T17" t="n">
-        <v>2733.495081453118</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="U17" t="n">
-        <v>2479.764808206234</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="V17" t="n">
-        <v>2148.701920862663</v>
+        <v>2852.570730988913</v>
       </c>
       <c r="W17" t="n">
-        <v>1795.933265592549</v>
+        <v>2852.570730988913</v>
       </c>
       <c r="X17" t="n">
-        <v>1422.46750733147</v>
+        <v>2852.570730988913</v>
       </c>
       <c r="Y17" t="n">
-        <v>1032.328175355658</v>
+        <v>2852.570730988913</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>117.744203161751</v>
       </c>
       <c r="I18" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J18" t="n">
-        <v>62.95784363771944</v>
+        <v>157.73056703692</v>
       </c>
       <c r="K18" t="n">
-        <v>351.5603662190522</v>
+        <v>446.3330896182526</v>
       </c>
       <c r="L18" t="n">
-        <v>801.0264698798786</v>
+        <v>895.7991932790791</v>
       </c>
       <c r="M18" t="n">
-        <v>1377.511434545858</v>
+        <v>1472.284157945058</v>
       </c>
       <c r="N18" t="n">
-        <v>1984.961254229453</v>
+        <v>1615.386336769026</v>
       </c>
       <c r="O18" t="n">
         <v>2104.66856857339</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.1880982661628</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="C19" t="n">
-        <v>369.2519153382559</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="D19" t="n">
-        <v>219.1352759259202</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="E19" t="n">
-        <v>219.1352759259202</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="F19" t="n">
-        <v>219.1352759259202</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="G19" t="n">
-        <v>219.1352759259202</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="H19" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="I19" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J19" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="K19" t="n">
-        <v>139.3797627728575</v>
+        <v>139.3797627728574</v>
       </c>
       <c r="L19" t="n">
         <v>292.6999427229281</v>
       </c>
       <c r="M19" t="n">
-        <v>464.7436984992932</v>
+        <v>464.7436984992931</v>
       </c>
       <c r="N19" t="n">
-        <v>638.1312547218512</v>
+        <v>638.1312547218511</v>
       </c>
       <c r="O19" t="n">
-        <v>782.2664309680857</v>
+        <v>782.2664309680856</v>
       </c>
       <c r="P19" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="Q19" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="R19" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="S19" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="T19" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="U19" t="n">
-        <v>882.0782921389928</v>
+        <v>607.0595018805669</v>
       </c>
       <c r="V19" t="n">
-        <v>882.0782921389928</v>
+        <v>352.37501367468</v>
       </c>
       <c r="W19" t="n">
-        <v>592.6611221020321</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="X19" t="n">
-        <v>592.6611221020321</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="Y19" t="n">
-        <v>592.6611221020321</v>
+        <v>62.95784363771943</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2465.970890924791</v>
+        <v>2031.518436378965</v>
       </c>
       <c r="C20" t="n">
-        <v>2097.008373984379</v>
+        <v>1662.555919438554</v>
       </c>
       <c r="D20" t="n">
-        <v>1738.742675377628</v>
+        <v>1304.290220831803</v>
       </c>
       <c r="E20" t="n">
-        <v>1352.954422779384</v>
+        <v>918.501968233559</v>
       </c>
       <c r="F20" t="n">
-        <v>941.9685179897765</v>
+        <v>507.5160634439514</v>
       </c>
       <c r="G20" t="n">
-        <v>524.3986113257675</v>
+        <v>89.94615677994244</v>
       </c>
       <c r="H20" t="n">
-        <v>201.2379344616828</v>
+        <v>89.94615677994244</v>
       </c>
       <c r="I20" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J20" t="n">
-        <v>211.4922973735831</v>
+        <v>211.4922973735836</v>
       </c>
       <c r="K20" t="n">
-        <v>554.8517441862898</v>
+        <v>554.85174418629</v>
       </c>
       <c r="L20" t="n">
         <v>1033.096127418862</v>
@@ -5762,40 +5762,40 @@
         <v>1581.841697065504</v>
       </c>
       <c r="N20" t="n">
-        <v>2124.834546179047</v>
+        <v>2124.834546179046</v>
       </c>
       <c r="O20" t="n">
-        <v>2592.379658301908</v>
+        <v>2592.379658301907</v>
       </c>
       <c r="P20" t="n">
         <v>2953.744211552766</v>
       </c>
       <c r="Q20" t="n">
-        <v>3147.892181885972</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="R20" t="n">
-        <v>3117.606903608934</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="S20" t="n">
-        <v>3117.606903608934</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="T20" t="n">
-        <v>2900.696540124984</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="U20" t="n">
-        <v>2646.9662668781</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="V20" t="n">
-        <v>2646.9662668781</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="W20" t="n">
-        <v>2646.9662668781</v>
+        <v>2795.123526615857</v>
       </c>
       <c r="X20" t="n">
-        <v>2646.9662668781</v>
+        <v>2421.657768354777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2646.9662668781</v>
+        <v>2031.518436378965</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>117.744203161751</v>
       </c>
       <c r="I21" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J21" t="n">
         <v>153.6439282918111</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231.7809532749293</v>
+        <v>338.2298312580986</v>
       </c>
       <c r="C22" t="n">
-        <v>231.7809532749293</v>
+        <v>169.2936483301916</v>
       </c>
       <c r="D22" t="n">
-        <v>231.7809532749293</v>
+        <v>169.2936483301916</v>
       </c>
       <c r="E22" t="n">
-        <v>231.7809532749293</v>
+        <v>169.2936483301916</v>
       </c>
       <c r="F22" t="n">
-        <v>231.7809532749293</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="G22" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="H22" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="I22" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J22" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="K22" t="n">
-        <v>139.3797627728575</v>
+        <v>139.3797627728574</v>
       </c>
       <c r="L22" t="n">
         <v>292.6999427229281</v>
       </c>
       <c r="M22" t="n">
-        <v>464.7436984992932</v>
+        <v>464.7436984992931</v>
       </c>
       <c r="N22" t="n">
-        <v>638.1312547218512</v>
+        <v>638.1312547218511</v>
       </c>
       <c r="O22" t="n">
-        <v>782.2664309680857</v>
+        <v>782.2664309680856</v>
       </c>
       <c r="P22" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="Q22" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="R22" t="n">
-        <v>741.8762865601552</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="S22" t="n">
-        <v>530.6670990790939</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="T22" t="n">
-        <v>304.1138625976511</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="U22" t="n">
-        <v>231.7809532749293</v>
+        <v>592.9143194639854</v>
       </c>
       <c r="V22" t="n">
-        <v>231.7809532749293</v>
+        <v>338.2298312580986</v>
       </c>
       <c r="W22" t="n">
-        <v>231.7809532749293</v>
+        <v>338.2298312580986</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7809532749293</v>
+        <v>338.2298312580986</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.7809532749293</v>
+        <v>338.2298312580986</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1910.120893436818</v>
+        <v>1967.40197330792</v>
       </c>
       <c r="C23" t="n">
-        <v>1541.158376496406</v>
+        <v>1598.439456367508</v>
       </c>
       <c r="D23" t="n">
-        <v>1182.892677889656</v>
+        <v>1240.173757760758</v>
       </c>
       <c r="E23" t="n">
-        <v>797.1044252914116</v>
+        <v>854.3855051625137</v>
       </c>
       <c r="F23" t="n">
-        <v>386.1185205018041</v>
+        <v>443.3996003729061</v>
       </c>
       <c r="G23" t="n">
         <v>386.1185205018041</v>
       </c>
       <c r="H23" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="I23" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J23" t="n">
-        <v>211.4922973735834</v>
+        <v>211.4922973735838</v>
       </c>
       <c r="K23" t="n">
-        <v>554.8517441862898</v>
+        <v>554.8517441862905</v>
       </c>
       <c r="L23" t="n">
-        <v>1033.096127418862</v>
+        <v>1033.096127418863</v>
       </c>
       <c r="M23" t="n">
-        <v>1581.841697065504</v>
+        <v>1581.841697065505</v>
       </c>
       <c r="N23" t="n">
-        <v>2124.834546179046</v>
+        <v>2124.834546179047</v>
       </c>
       <c r="O23" t="n">
         <v>2592.379658301908</v>
@@ -6008,31 +6008,31 @@
         <v>2953.744211552766</v>
       </c>
       <c r="Q23" t="n">
-        <v>3147.892181885972</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="R23" t="n">
-        <v>3117.606903608934</v>
+        <v>3117.606903608933</v>
       </c>
       <c r="S23" t="n">
-        <v>2950.405444937067</v>
+        <v>3117.606903608933</v>
       </c>
       <c r="T23" t="n">
-        <v>2733.495081453118</v>
+        <v>3117.606903608933</v>
       </c>
       <c r="U23" t="n">
-        <v>2686.860065476752</v>
+        <v>3117.606903608933</v>
       </c>
       <c r="V23" t="n">
-        <v>2686.860065476752</v>
+        <v>3117.606903608933</v>
       </c>
       <c r="W23" t="n">
-        <v>2686.860065476752</v>
+        <v>3117.606903608933</v>
       </c>
       <c r="X23" t="n">
-        <v>2686.860065476752</v>
+        <v>2744.141145347854</v>
       </c>
       <c r="Y23" t="n">
-        <v>2296.72073350094</v>
+        <v>2354.001813372042</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>117.744203161751</v>
       </c>
       <c r="I24" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J24" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="K24" t="n">
-        <v>180.425866230691</v>
+        <v>351.5603662190521</v>
       </c>
       <c r="L24" t="n">
-        <v>629.8919698915174</v>
+        <v>801.0264698798785</v>
       </c>
       <c r="M24" t="n">
-        <v>1206.376934557496</v>
+        <v>1377.511434545858</v>
       </c>
       <c r="N24" t="n">
         <v>1813.826754241092</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>251.6476972672056</v>
+        <v>145.315306477059</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71151433929867</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="D25" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="E25" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="F25" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="G25" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="H25" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="I25" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J25" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="K25" t="n">
-        <v>139.3797627728575</v>
+        <v>139.3797627728574</v>
       </c>
       <c r="L25" t="n">
         <v>292.6999427229281</v>
       </c>
       <c r="M25" t="n">
-        <v>464.7436984992932</v>
+        <v>464.7436984992931</v>
       </c>
       <c r="N25" t="n">
-        <v>638.1312547218512</v>
+        <v>638.1312547218511</v>
       </c>
       <c r="O25" t="n">
-        <v>782.2664309680857</v>
+        <v>782.2664309680856</v>
       </c>
       <c r="P25" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="Q25" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="R25" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="S25" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="T25" t="n">
-        <v>882.0782921389928</v>
+        <v>655.5250556575497</v>
       </c>
       <c r="U25" t="n">
-        <v>882.0782921389928</v>
+        <v>655.5250556575497</v>
       </c>
       <c r="V25" t="n">
-        <v>882.0782921389928</v>
+        <v>655.5250556575497</v>
       </c>
       <c r="W25" t="n">
-        <v>882.0782921389928</v>
+        <v>366.1078856205891</v>
       </c>
       <c r="X25" t="n">
-        <v>654.0887412409754</v>
+        <v>366.1078856205891</v>
       </c>
       <c r="Y25" t="n">
-        <v>433.2961620974453</v>
+        <v>145.315306477059</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2465.970890924791</v>
+        <v>1032.328175355657</v>
       </c>
       <c r="C26" t="n">
-        <v>2097.008373984379</v>
+        <v>1032.328175355657</v>
       </c>
       <c r="D26" t="n">
-        <v>1738.742675377628</v>
+        <v>1032.328175355657</v>
       </c>
       <c r="E26" t="n">
-        <v>1352.954422779384</v>
+        <v>1032.328175355657</v>
       </c>
       <c r="F26" t="n">
-        <v>941.9685179897765</v>
+        <v>621.3422705660494</v>
       </c>
       <c r="G26" t="n">
         <v>524.3986113257675</v>
@@ -6221,55 +6221,55 @@
         <v>201.2379344616828</v>
       </c>
       <c r="I26" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J26" t="n">
-        <v>211.4922973735837</v>
+        <v>211.4922973735836</v>
       </c>
       <c r="K26" t="n">
-        <v>554.8517441862901</v>
+        <v>554.8517441862903</v>
       </c>
       <c r="L26" t="n">
         <v>1033.096127418863</v>
       </c>
       <c r="M26" t="n">
-        <v>1581.841697065505</v>
+        <v>1581.841697065504</v>
       </c>
       <c r="N26" t="n">
-        <v>2124.834546179047</v>
+        <v>2124.834546179046</v>
       </c>
       <c r="O26" t="n">
-        <v>2592.379658301908</v>
+        <v>2592.379658301907</v>
       </c>
       <c r="P26" t="n">
         <v>2953.744211552766</v>
       </c>
       <c r="Q26" t="n">
-        <v>3147.892181885972</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="R26" t="n">
-        <v>3117.606903608934</v>
+        <v>3117.606903608933</v>
       </c>
       <c r="S26" t="n">
-        <v>3117.606903608934</v>
+        <v>2950.405444937067</v>
       </c>
       <c r="T26" t="n">
-        <v>3117.606903608934</v>
+        <v>2733.495081453118</v>
       </c>
       <c r="U26" t="n">
-        <v>3117.606903608934</v>
+        <v>2479.764808206233</v>
       </c>
       <c r="V26" t="n">
-        <v>3117.606903608934</v>
+        <v>2148.701920862663</v>
       </c>
       <c r="W26" t="n">
-        <v>3117.606903608934</v>
+        <v>1795.933265592548</v>
       </c>
       <c r="X26" t="n">
-        <v>3117.606903608934</v>
+        <v>1422.467507331469</v>
       </c>
       <c r="Y26" t="n">
-        <v>2852.570730988913</v>
+        <v>1032.328175355657</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.0103364525415</v>
+        <v>1457.104473063932</v>
       </c>
       <c r="C27" t="n">
-        <v>813.5573071714145</v>
+        <v>1282.651443782805</v>
       </c>
       <c r="D27" t="n">
-        <v>664.6228975101633</v>
+        <v>1133.717034121554</v>
       </c>
       <c r="E27" t="n">
-        <v>505.3854425047077</v>
+        <v>974.479579116098</v>
       </c>
       <c r="F27" t="n">
-        <v>358.8508845315927</v>
+        <v>827.9450211429829</v>
       </c>
       <c r="G27" t="n">
-        <v>221.1515273273406</v>
+        <v>690.2456639387308</v>
       </c>
       <c r="H27" t="n">
-        <v>117.744203161751</v>
+        <v>586.8383397731411</v>
       </c>
       <c r="I27" t="n">
-        <v>62.95784363771944</v>
+        <v>532.0519802491095</v>
       </c>
       <c r="J27" t="n">
-        <v>62.95784363771944</v>
+        <v>532.0519802491095</v>
       </c>
       <c r="K27" t="n">
-        <v>89.73978157659938</v>
+        <v>820.6545028304422</v>
       </c>
       <c r="L27" t="n">
-        <v>539.2058852374258</v>
+        <v>1270.120606491269</v>
       </c>
       <c r="M27" t="n">
-        <v>1115.690849903405</v>
+        <v>1846.605571157248</v>
       </c>
       <c r="N27" t="n">
-        <v>1723.140669587</v>
+        <v>2454.055390840843</v>
       </c>
       <c r="O27" t="n">
-        <v>2212.422901391365</v>
+        <v>2573.76270518478</v>
       </c>
       <c r="P27" t="n">
-        <v>2588.111960620489</v>
+        <v>2949.451764413905</v>
       </c>
       <c r="Q27" t="n">
-        <v>2678.798045274581</v>
+        <v>3147.892181885971</v>
       </c>
       <c r="R27" t="n">
-        <v>2641.670024709492</v>
+        <v>3110.764161320883</v>
       </c>
       <c r="S27" t="n">
-        <v>2487.411749820756</v>
+        <v>2956.505886432146</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.382695915788</v>
+        <v>2758.476832527178</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.226937403041</v>
+        <v>2530.321074014431</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.074829171298</v>
+        <v>2295.168965782688</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.837472443096</v>
+        <v>2040.931609054487</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.985972237563</v>
+        <v>1833.080108848954</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.22567347261</v>
+        <v>1625.319810084</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="C28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="D28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="E28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="F28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="G28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="H28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="I28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="J28" t="n">
-        <v>62.95784363771944</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="K28" t="n">
-        <v>139.3797627728575</v>
+        <v>139.3797627728574</v>
       </c>
       <c r="L28" t="n">
         <v>292.6999427229281</v>
       </c>
       <c r="M28" t="n">
-        <v>464.7436984992932</v>
+        <v>464.7436984992931</v>
       </c>
       <c r="N28" t="n">
-        <v>638.1312547218512</v>
+        <v>638.1312547218511</v>
       </c>
       <c r="O28" t="n">
-        <v>782.2664309680857</v>
+        <v>782.2664309680856</v>
       </c>
       <c r="P28" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="Q28" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="R28" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="S28" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="T28" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389925</v>
       </c>
       <c r="U28" t="n">
-        <v>882.0782921389928</v>
+        <v>607.0595018805669</v>
       </c>
       <c r="V28" t="n">
-        <v>882.0782921389928</v>
+        <v>352.37501367468</v>
       </c>
       <c r="W28" t="n">
-        <v>693.3884385095066</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="X28" t="n">
-        <v>465.3988876114893</v>
+        <v>62.95784363771943</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.6063084679591</v>
+        <v>62.95784363771943</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2465.970890924791</v>
+        <v>1644.918596314845</v>
       </c>
       <c r="C29" t="n">
-        <v>2097.008373984379</v>
+        <v>1275.956079374433</v>
       </c>
       <c r="D29" t="n">
-        <v>1738.742675377628</v>
+        <v>1275.956079374433</v>
       </c>
       <c r="E29" t="n">
-        <v>1352.954422779384</v>
+        <v>1275.956079374433</v>
       </c>
       <c r="F29" t="n">
         <v>941.9685179897765</v>
@@ -6461,7 +6461,7 @@
         <v>62.95784363771944</v>
       </c>
       <c r="J29" t="n">
-        <v>211.4922973735843</v>
+        <v>211.4922973735844</v>
       </c>
       <c r="K29" t="n">
         <v>554.8517441862909</v>
@@ -6485,28 +6485,28 @@
         <v>3147.892181885972</v>
       </c>
       <c r="R29" t="n">
-        <v>3117.606903608934</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="S29" t="n">
-        <v>2950.405444937068</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="T29" t="n">
-        <v>2733.495081453118</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="U29" t="n">
-        <v>2479.764808206234</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="V29" t="n">
-        <v>2479.764808206234</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="W29" t="n">
-        <v>2479.764808206234</v>
+        <v>2795.123526615858</v>
       </c>
       <c r="X29" t="n">
-        <v>2479.764808206234</v>
+        <v>2421.657768354778</v>
       </c>
       <c r="Y29" t="n">
-        <v>2479.764808206234</v>
+        <v>2031.518436378966</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1457.104473063933</v>
+        <v>988.0103364525415</v>
       </c>
       <c r="C30" t="n">
-        <v>1282.651443782806</v>
+        <v>813.5573071714145</v>
       </c>
       <c r="D30" t="n">
-        <v>1133.717034121554</v>
+        <v>664.6228975101633</v>
       </c>
       <c r="E30" t="n">
-        <v>974.4795791160989</v>
+        <v>505.3854425047077</v>
       </c>
       <c r="F30" t="n">
-        <v>827.9450211429838</v>
+        <v>358.8508845315927</v>
       </c>
       <c r="G30" t="n">
-        <v>690.2456639387317</v>
+        <v>221.1515273273406</v>
       </c>
       <c r="H30" t="n">
-        <v>586.838339773142</v>
+        <v>117.744203161751</v>
       </c>
       <c r="I30" t="n">
-        <v>532.0519802491104</v>
+        <v>62.95784363771944</v>
       </c>
       <c r="J30" t="n">
-        <v>532.0519802491104</v>
+        <v>62.95784363771944</v>
       </c>
       <c r="K30" t="n">
-        <v>820.6545028304432</v>
+        <v>89.73978157659943</v>
       </c>
       <c r="L30" t="n">
-        <v>1270.12060649127</v>
+        <v>431.451552419451</v>
       </c>
       <c r="M30" t="n">
-        <v>1846.605571157249</v>
+        <v>1007.93651708543</v>
       </c>
       <c r="N30" t="n">
-        <v>2454.055390840844</v>
+        <v>1615.386336769026</v>
       </c>
       <c r="O30" t="n">
-        <v>2943.337622645209</v>
+        <v>2104.66856857339</v>
       </c>
       <c r="P30" t="n">
-        <v>3003.748540920796</v>
+        <v>2480.357627802515</v>
       </c>
       <c r="Q30" t="n">
-        <v>3147.892181885972</v>
+        <v>2678.798045274581</v>
       </c>
       <c r="R30" t="n">
-        <v>3110.764161320883</v>
+        <v>2641.670024709492</v>
       </c>
       <c r="S30" t="n">
-        <v>2956.505886432147</v>
+        <v>2487.411749820756</v>
       </c>
       <c r="T30" t="n">
-        <v>2758.476832527179</v>
+        <v>2289.382695915788</v>
       </c>
       <c r="U30" t="n">
-        <v>2530.321074014432</v>
+        <v>2061.226937403041</v>
       </c>
       <c r="V30" t="n">
-        <v>2295.168965782689</v>
+        <v>1826.074829171298</v>
       </c>
       <c r="W30" t="n">
-        <v>2040.931609054488</v>
+        <v>1571.837472443096</v>
       </c>
       <c r="X30" t="n">
-        <v>1833.080108848955</v>
+        <v>1363.985972237563</v>
       </c>
       <c r="Y30" t="n">
-        <v>1625.319810084001</v>
+        <v>1156.22567347261</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2966.243717055732</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="C31" t="n">
-        <v>2797.307534127825</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="D31" t="n">
-        <v>2647.19089471549</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="E31" t="n">
-        <v>2499.277801133097</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="F31" t="n">
-        <v>2352.387853635186</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="G31" t="n">
         <v>2328.771733384699</v>
@@ -6646,25 +6646,25 @@
         <v>3147.892181885972</v>
       </c>
       <c r="S31" t="n">
-        <v>3147.892181885972</v>
+        <v>3099.173430747035</v>
       </c>
       <c r="T31" t="n">
-        <v>3147.892181885972</v>
+        <v>2872.620194265593</v>
       </c>
       <c r="U31" t="n">
-        <v>3147.892181885972</v>
+        <v>2583.456221590585</v>
       </c>
       <c r="V31" t="n">
-        <v>3147.892181885972</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="W31" t="n">
-        <v>3147.892181885972</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="X31" t="n">
-        <v>3147.892181885972</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="Y31" t="n">
-        <v>3147.892181885972</v>
+        <v>2328.771733384699</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1814.608072895016</v>
+        <v>2210.330366025403</v>
       </c>
       <c r="C32" t="n">
-        <v>1814.608072895016</v>
+        <v>2097.008373984379</v>
       </c>
       <c r="D32" t="n">
-        <v>1456.342374288266</v>
+        <v>1738.742675377628</v>
       </c>
       <c r="E32" t="n">
-        <v>1070.554121690022</v>
+        <v>1352.954422779384</v>
       </c>
       <c r="F32" t="n">
-        <v>659.5682169004142</v>
+        <v>941.9685179897765</v>
       </c>
       <c r="G32" t="n">
-        <v>241.9983102364052</v>
+        <v>524.3986113257675</v>
       </c>
       <c r="H32" t="n">
-        <v>62.95784363771944</v>
+        <v>201.2379344616828</v>
       </c>
       <c r="I32" t="n">
         <v>62.95784363771944</v>
@@ -6716,7 +6716,7 @@
         <v>2592.379658301908</v>
       </c>
       <c r="P32" t="n">
-        <v>2953.744211552766</v>
+        <v>2953.744211552767</v>
       </c>
       <c r="Q32" t="n">
         <v>3147.892181885972</v>
@@ -6728,22 +6728,22 @@
         <v>3147.892181885972</v>
       </c>
       <c r="T32" t="n">
-        <v>2930.981818402022</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="U32" t="n">
-        <v>2930.981818402022</v>
+        <v>2894.161908639088</v>
       </c>
       <c r="V32" t="n">
-        <v>2930.981818402022</v>
+        <v>2563.099021295518</v>
       </c>
       <c r="W32" t="n">
-        <v>2578.213163131908</v>
+        <v>2210.330366025403</v>
       </c>
       <c r="X32" t="n">
-        <v>2204.747404870828</v>
+        <v>2210.330366025403</v>
       </c>
       <c r="Y32" t="n">
-        <v>1814.608072895016</v>
+        <v>2210.330366025403</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1457.104473063932</v>
+        <v>988.0103364525415</v>
       </c>
       <c r="C33" t="n">
-        <v>1282.651443782805</v>
+        <v>813.5573071714145</v>
       </c>
       <c r="D33" t="n">
-        <v>1133.717034121554</v>
+        <v>664.6228975101633</v>
       </c>
       <c r="E33" t="n">
-        <v>974.4795791160984</v>
+        <v>505.3854425047077</v>
       </c>
       <c r="F33" t="n">
-        <v>827.9450211429834</v>
+        <v>358.8508845315927</v>
       </c>
       <c r="G33" t="n">
-        <v>690.2456639387312</v>
+        <v>221.1515273273406</v>
       </c>
       <c r="H33" t="n">
-        <v>586.8383397731416</v>
+        <v>117.744203161751</v>
       </c>
       <c r="I33" t="n">
-        <v>532.05198024911</v>
+        <v>62.95784363771944</v>
       </c>
       <c r="J33" t="n">
-        <v>532.05198024911</v>
+        <v>157.73056703692</v>
       </c>
       <c r="K33" t="n">
-        <v>820.6545028304428</v>
+        <v>446.3330896182528</v>
       </c>
       <c r="L33" t="n">
-        <v>1270.120606491269</v>
+        <v>895.7991932790792</v>
       </c>
       <c r="M33" t="n">
-        <v>1846.605571157248</v>
+        <v>1472.284157945058</v>
       </c>
       <c r="N33" t="n">
-        <v>2084.480473380417</v>
+        <v>2079.733977628654</v>
       </c>
       <c r="O33" t="n">
-        <v>2573.762705184781</v>
+        <v>2179.092513349056</v>
       </c>
       <c r="P33" t="n">
-        <v>2949.451764413906</v>
+        <v>2554.781572578181</v>
       </c>
       <c r="Q33" t="n">
-        <v>3147.892181885972</v>
+        <v>2678.798045274581</v>
       </c>
       <c r="R33" t="n">
-        <v>3110.764161320883</v>
+        <v>2641.670024709492</v>
       </c>
       <c r="S33" t="n">
-        <v>2956.505886432146</v>
+        <v>2487.411749820756</v>
       </c>
       <c r="T33" t="n">
-        <v>2758.476832527178</v>
+        <v>2289.382695915788</v>
       </c>
       <c r="U33" t="n">
-        <v>2530.321074014431</v>
+        <v>2061.226937403041</v>
       </c>
       <c r="V33" t="n">
-        <v>2295.168965782689</v>
+        <v>1826.074829171298</v>
       </c>
       <c r="W33" t="n">
-        <v>2040.931609054487</v>
+        <v>1571.837472443096</v>
       </c>
       <c r="X33" t="n">
-        <v>1833.080108848954</v>
+        <v>1363.985972237563</v>
       </c>
       <c r="Y33" t="n">
-        <v>1625.319810084</v>
+        <v>1156.22567347261</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>845.6368166954754</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="C34" t="n">
-        <v>676.7006337675685</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="D34" t="n">
-        <v>526.5839943552328</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="E34" t="n">
-        <v>378.6709007728397</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="F34" t="n">
-        <v>231.7809532749293</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="G34" t="n">
-        <v>62.95784363771944</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="H34" t="n">
-        <v>62.95784363771944</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="I34" t="n">
-        <v>62.95784363771944</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="J34" t="n">
-        <v>62.95784363771944</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="K34" t="n">
-        <v>139.3797627728575</v>
+        <v>2405.193652519837</v>
       </c>
       <c r="L34" t="n">
-        <v>292.6999427229281</v>
+        <v>2558.513832469907</v>
       </c>
       <c r="M34" t="n">
-        <v>464.7436984992932</v>
+        <v>2730.557588246273</v>
       </c>
       <c r="N34" t="n">
-        <v>638.1312547218512</v>
+        <v>2903.945144468831</v>
       </c>
       <c r="O34" t="n">
-        <v>782.2664309680857</v>
+        <v>3048.080320715065</v>
       </c>
       <c r="P34" t="n">
-        <v>882.0782921389928</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="Q34" t="n">
-        <v>882.0782921389928</v>
+        <v>3133.270693120317</v>
       </c>
       <c r="R34" t="n">
-        <v>882.0782921389928</v>
+        <v>2993.06868754148</v>
       </c>
       <c r="S34" t="n">
-        <v>882.0782921389928</v>
+        <v>2879.089754241431</v>
       </c>
       <c r="T34" t="n">
-        <v>882.0782921389928</v>
+        <v>2879.089754241431</v>
       </c>
       <c r="U34" t="n">
-        <v>882.0782921389928</v>
+        <v>2589.925781566424</v>
       </c>
       <c r="V34" t="n">
-        <v>882.0782921389928</v>
+        <v>2589.925781566424</v>
       </c>
       <c r="W34" t="n">
-        <v>882.0782921389928</v>
+        <v>2589.925781566424</v>
       </c>
       <c r="X34" t="n">
-        <v>882.0782921389928</v>
+        <v>2361.936230668407</v>
       </c>
       <c r="Y34" t="n">
-        <v>882.0782921389928</v>
+        <v>2361.936230668407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1586.960216572733</v>
+        <v>1644.918596314845</v>
       </c>
       <c r="C35" t="n">
-        <v>1217.997699632322</v>
+        <v>1644.918596314845</v>
       </c>
       <c r="D35" t="n">
-        <v>859.7320010255712</v>
+        <v>1286.652897708094</v>
       </c>
       <c r="E35" t="n">
-        <v>473.943748427327</v>
+        <v>900.8646451098498</v>
       </c>
       <c r="F35" t="n">
-        <v>62.95784363771944</v>
+        <v>489.8787403202422</v>
       </c>
       <c r="G35" t="n">
-        <v>62.95784363771944</v>
+        <v>72.30883365623328</v>
       </c>
       <c r="H35" t="n">
         <v>62.95784363771944</v>
@@ -6935,10 +6935,10 @@
         <v>62.95784363771944</v>
       </c>
       <c r="J35" t="n">
-        <v>211.4922973735837</v>
+        <v>211.4922973735844</v>
       </c>
       <c r="K35" t="n">
-        <v>554.8517441862901</v>
+        <v>554.8517441862909</v>
       </c>
       <c r="L35" t="n">
         <v>1033.096127418863</v>
@@ -6947,13 +6947,13 @@
         <v>1581.841697065505</v>
       </c>
       <c r="N35" t="n">
-        <v>2124.834546179046</v>
+        <v>2124.834546179047</v>
       </c>
       <c r="O35" t="n">
         <v>2592.379658301908</v>
       </c>
       <c r="P35" t="n">
-        <v>2953.744211552766</v>
+        <v>2953.744211552767</v>
       </c>
       <c r="Q35" t="n">
         <v>3147.892181885972</v>
@@ -6968,19 +6968,19 @@
         <v>3147.892181885972</v>
       </c>
       <c r="U35" t="n">
-        <v>2894.161908639087</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="V35" t="n">
-        <v>2894.161908639087</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="W35" t="n">
-        <v>2541.393253368973</v>
+        <v>2795.123526615858</v>
       </c>
       <c r="X35" t="n">
-        <v>2363.699388612667</v>
+        <v>2421.657768354778</v>
       </c>
       <c r="Y35" t="n">
-        <v>1973.560056636855</v>
+        <v>2031.518436378966</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1457.104473063932</v>
+        <v>988.0103364525415</v>
       </c>
       <c r="C36" t="n">
-        <v>1282.651443782805</v>
+        <v>813.5573071714145</v>
       </c>
       <c r="D36" t="n">
-        <v>1133.717034121554</v>
+        <v>664.6228975101633</v>
       </c>
       <c r="E36" t="n">
-        <v>974.4795791160984</v>
+        <v>505.3854425047077</v>
       </c>
       <c r="F36" t="n">
-        <v>827.9450211429834</v>
+        <v>358.8508845315927</v>
       </c>
       <c r="G36" t="n">
-        <v>690.2456639387312</v>
+        <v>221.1515273273406</v>
       </c>
       <c r="H36" t="n">
-        <v>586.8383397731416</v>
+        <v>117.744203161751</v>
       </c>
       <c r="I36" t="n">
-        <v>532.05198024911</v>
+        <v>62.95784363771944</v>
       </c>
       <c r="J36" t="n">
-        <v>532.05198024911</v>
+        <v>157.73056703692</v>
       </c>
       <c r="K36" t="n">
-        <v>558.83391818799</v>
+        <v>446.3330896182528</v>
       </c>
       <c r="L36" t="n">
-        <v>1008.300021848816</v>
+        <v>895.7991932790792</v>
       </c>
       <c r="M36" t="n">
-        <v>1584.784986514795</v>
+        <v>1472.284157945058</v>
       </c>
       <c r="N36" t="n">
-        <v>2192.234806198391</v>
+        <v>1615.386336769026</v>
       </c>
       <c r="O36" t="n">
-        <v>2681.517038002755</v>
+        <v>2104.66856857339</v>
       </c>
       <c r="P36" t="n">
-        <v>3057.20609723188</v>
+        <v>2480.357627802515</v>
       </c>
       <c r="Q36" t="n">
-        <v>3147.892181885972</v>
+        <v>2678.798045274581</v>
       </c>
       <c r="R36" t="n">
-        <v>3110.764161320883</v>
+        <v>2641.670024709492</v>
       </c>
       <c r="S36" t="n">
-        <v>2956.505886432146</v>
+        <v>2487.411749820756</v>
       </c>
       <c r="T36" t="n">
-        <v>2758.476832527178</v>
+        <v>2289.382695915788</v>
       </c>
       <c r="U36" t="n">
-        <v>2530.321074014431</v>
+        <v>2061.226937403041</v>
       </c>
       <c r="V36" t="n">
-        <v>2295.168965782689</v>
+        <v>1826.074829171298</v>
       </c>
       <c r="W36" t="n">
-        <v>2040.931609054487</v>
+        <v>1571.837472443096</v>
       </c>
       <c r="X36" t="n">
-        <v>1833.080108848954</v>
+        <v>1363.985972237563</v>
       </c>
       <c r="Y36" t="n">
-        <v>1625.319810084</v>
+        <v>1156.22567347261</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>193.9731855781078</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="C37" t="n">
-        <v>193.9731855781078</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="D37" t="n">
-        <v>193.9731855781078</v>
+        <v>846.9412658675304</v>
       </c>
       <c r="E37" t="n">
-        <v>193.9731855781078</v>
+        <v>699.0281722851373</v>
       </c>
       <c r="F37" t="n">
-        <v>193.9731855781078</v>
+        <v>552.1382247872269</v>
       </c>
       <c r="G37" t="n">
-        <v>193.9731855781078</v>
+        <v>383.315115150017</v>
       </c>
       <c r="H37" t="n">
-        <v>193.9731855781078</v>
+        <v>227.1376828618163</v>
       </c>
       <c r="I37" t="n">
-        <v>62.95784363771944</v>
+        <v>96.12234092142789</v>
       </c>
       <c r="J37" t="n">
         <v>62.95784363771944</v>
@@ -7102,43 +7102,43 @@
         <v>292.6999427229281</v>
       </c>
       <c r="M37" t="n">
-        <v>464.7436984992932</v>
+        <v>464.7436984992933</v>
       </c>
       <c r="N37" t="n">
-        <v>638.1312547218512</v>
+        <v>638.1312547218513</v>
       </c>
       <c r="O37" t="n">
-        <v>782.2664309680857</v>
+        <v>782.2664309680858</v>
       </c>
       <c r="P37" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="Q37" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="R37" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="S37" t="n">
-        <v>882.0782921389928</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="T37" t="n">
-        <v>711.3799065130859</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="U37" t="n">
-        <v>711.3799065130859</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="V37" t="n">
-        <v>711.3799065130859</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="W37" t="n">
-        <v>421.9627364761252</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="X37" t="n">
-        <v>193.9731855781078</v>
+        <v>882.0782921389929</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9731855781078</v>
+        <v>882.0782921389929</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1593.544218447135</v>
+        <v>1997.687251584959</v>
       </c>
       <c r="C38" t="n">
-        <v>1224.581701506723</v>
+        <v>1628.724734644547</v>
       </c>
       <c r="D38" t="n">
-        <v>866.3160028999727</v>
+        <v>1277.30190768958</v>
       </c>
       <c r="E38" t="n">
-        <v>480.5277503017284</v>
+        <v>891.513655091336</v>
       </c>
       <c r="F38" t="n">
         <v>480.5277503017284</v>
@@ -7172,10 +7172,10 @@
         <v>62.95784363771944</v>
       </c>
       <c r="J38" t="n">
-        <v>211.4922973735838</v>
+        <v>211.4922973735836</v>
       </c>
       <c r="K38" t="n">
-        <v>554.8517441862905</v>
+        <v>554.8517441862901</v>
       </c>
       <c r="L38" t="n">
         <v>1033.096127418863</v>
@@ -7199,25 +7199,25 @@
         <v>3147.892181885972</v>
       </c>
       <c r="S38" t="n">
-        <v>2980.690723214106</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="T38" t="n">
-        <v>2980.690723214106</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="U38" t="n">
-        <v>2726.960449967221</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="V38" t="n">
-        <v>2726.960449967221</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="W38" t="n">
-        <v>2726.960449967221</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="X38" t="n">
-        <v>2353.494691706142</v>
+        <v>2774.426423624892</v>
       </c>
       <c r="Y38" t="n">
-        <v>1963.35535973033</v>
+        <v>2384.287091649081</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1457.104473063933</v>
+        <v>988.0103364525415</v>
       </c>
       <c r="C39" t="n">
-        <v>1282.651443782806</v>
+        <v>813.5573071714145</v>
       </c>
       <c r="D39" t="n">
-        <v>1133.717034121554</v>
+        <v>664.6228975101633</v>
       </c>
       <c r="E39" t="n">
-        <v>974.4795791160989</v>
+        <v>505.3854425047077</v>
       </c>
       <c r="F39" t="n">
-        <v>827.9450211429838</v>
+        <v>358.8508845315927</v>
       </c>
       <c r="G39" t="n">
-        <v>690.2456639387317</v>
+        <v>221.1515273273406</v>
       </c>
       <c r="H39" t="n">
-        <v>586.838339773142</v>
+        <v>117.744203161751</v>
       </c>
       <c r="I39" t="n">
-        <v>532.0519802491104</v>
+        <v>62.95784363771944</v>
       </c>
       <c r="J39" t="n">
-        <v>532.0519802491104</v>
+        <v>62.95784363771944</v>
       </c>
       <c r="K39" t="n">
-        <v>820.6545028304432</v>
+        <v>351.5603662190522</v>
       </c>
       <c r="L39" t="n">
-        <v>1270.12060649127</v>
+        <v>801.0264698798787</v>
       </c>
       <c r="M39" t="n">
-        <v>1846.605571157249</v>
+        <v>1377.511434545858</v>
       </c>
       <c r="N39" t="n">
-        <v>2454.055390840844</v>
+        <v>1984.961254229453</v>
       </c>
       <c r="O39" t="n">
-        <v>2943.337622645209</v>
+        <v>2474.243486033818</v>
       </c>
       <c r="P39" t="n">
-        <v>3003.748540920796</v>
+        <v>2678.798045274581</v>
       </c>
       <c r="Q39" t="n">
-        <v>3147.892181885972</v>
+        <v>2678.798045274581</v>
       </c>
       <c r="R39" t="n">
-        <v>3110.764161320883</v>
+        <v>2641.670024709492</v>
       </c>
       <c r="S39" t="n">
-        <v>2956.505886432147</v>
+        <v>2487.411749820756</v>
       </c>
       <c r="T39" t="n">
-        <v>2758.476832527179</v>
+        <v>2289.382695915788</v>
       </c>
       <c r="U39" t="n">
-        <v>2530.321074014432</v>
+        <v>2061.226937403041</v>
       </c>
       <c r="V39" t="n">
-        <v>2295.168965782689</v>
+        <v>1826.074829171298</v>
       </c>
       <c r="W39" t="n">
-        <v>2040.931609054488</v>
+        <v>1571.837472443096</v>
       </c>
       <c r="X39" t="n">
-        <v>1833.080108848955</v>
+        <v>1363.985972237563</v>
       </c>
       <c r="Y39" t="n">
-        <v>1625.319810084001</v>
+        <v>1156.22567347261</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>366.3610829825429</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="C40" t="n">
-        <v>197.424900054636</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="D40" t="n">
-        <v>197.424900054636</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="E40" t="n">
-        <v>62.95784363771944</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="F40" t="n">
-        <v>62.95784363771944</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="G40" t="n">
-        <v>62.95784363771944</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="H40" t="n">
-        <v>62.95784363771944</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="I40" t="n">
-        <v>62.95784363771944</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="J40" t="n">
-        <v>62.95784363771944</v>
+        <v>2328.771733384699</v>
       </c>
       <c r="K40" t="n">
-        <v>139.3797627728575</v>
+        <v>2405.193652519837</v>
       </c>
       <c r="L40" t="n">
-        <v>292.6999427229281</v>
+        <v>2558.513832469907</v>
       </c>
       <c r="M40" t="n">
-        <v>464.7436984992933</v>
+        <v>2730.557588246273</v>
       </c>
       <c r="N40" t="n">
-        <v>638.1312547218513</v>
+        <v>2903.945144468831</v>
       </c>
       <c r="O40" t="n">
-        <v>782.2664309680858</v>
+        <v>3048.080320715065</v>
       </c>
       <c r="P40" t="n">
-        <v>882.0782921389929</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="Q40" t="n">
-        <v>882.0782921389929</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="R40" t="n">
-        <v>882.0782921389929</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="S40" t="n">
-        <v>882.0782921389929</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="T40" t="n">
-        <v>655.5250556575501</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="U40" t="n">
-        <v>366.3610829825429</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="V40" t="n">
-        <v>366.3610829825429</v>
+        <v>3147.892181885972</v>
       </c>
       <c r="W40" t="n">
-        <v>366.3610829825429</v>
+        <v>2858.475011849011</v>
       </c>
       <c r="X40" t="n">
-        <v>366.3610829825429</v>
+        <v>2630.485460950994</v>
       </c>
       <c r="Y40" t="n">
-        <v>366.3610829825429</v>
+        <v>2510.420198214938</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>882.4987932739809</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>882.4987932739809</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D41" t="n">
-        <v>882.4987932739809</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>882.4987932739809</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F41" t="n">
-        <v>471.5128884843734</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036447</v>
@@ -7415,46 +7415,46 @@
         <v>545.8368823689352</v>
       </c>
       <c r="L41" t="n">
-        <v>610.5966631965616</v>
+        <v>1024.081265601508</v>
       </c>
       <c r="M41" t="n">
-        <v>1159.342232843204</v>
+        <v>1572.82683524815</v>
       </c>
       <c r="N41" t="n">
-        <v>1702.335081956746</v>
+        <v>2115.819684361692</v>
       </c>
       <c r="O41" t="n">
-        <v>2169.880194079607</v>
+        <v>2335.784537767365</v>
       </c>
       <c r="P41" t="n">
-        <v>2531.244747330465</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q41" t="n">
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2666.863812741185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2666.863812741185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2449.953449257236</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2196.223176010352</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2012.006620584028</v>
+        <v>2366.086203674653</v>
       </c>
       <c r="W41" t="n">
-        <v>1659.237965313914</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.237965313914</v>
+        <v>1639.851790143459</v>
       </c>
       <c r="Y41" t="n">
-        <v>1269.098633338103</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J42" t="n">
-        <v>148.715705219565</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K42" t="n">
-        <v>437.3182278008978</v>
+        <v>80.72491975924444</v>
       </c>
       <c r="L42" t="n">
-        <v>886.7843314617244</v>
+        <v>422.4366906020957</v>
       </c>
       <c r="M42" t="n">
-        <v>1463.269296127703</v>
+        <v>998.9216552680748</v>
       </c>
       <c r="N42" t="n">
-        <v>2070.719115811299</v>
+        <v>1606.37147495167</v>
       </c>
       <c r="O42" t="n">
-        <v>2560.001347615664</v>
+        <v>2095.653706756035</v>
       </c>
       <c r="P42" t="n">
-        <v>2620.412265891251</v>
+        <v>2471.34276598516</v>
       </c>
       <c r="Q42" t="n">
         <v>2669.783183457226</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1925.057881877359</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C43" t="n">
-        <v>1925.057881877359</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D43" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E43" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F43" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G43" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H43" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I43" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J43" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K43" t="n">
-        <v>1954.450561652088</v>
+        <v>130.3649009555025</v>
       </c>
       <c r="L43" t="n">
-        <v>2107.770741602159</v>
+        <v>283.6850809055732</v>
       </c>
       <c r="M43" t="n">
-        <v>2279.814497378524</v>
+        <v>455.7288366819382</v>
       </c>
       <c r="N43" t="n">
-        <v>2453.202053601082</v>
+        <v>629.1163929044963</v>
       </c>
       <c r="O43" t="n">
-        <v>2597.337229847316</v>
+        <v>773.2515691507308</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018223</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018223</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018223</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018223</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018223</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018223</v>
+        <v>583.8994576466307</v>
       </c>
       <c r="V43" t="n">
-        <v>2442.464602812337</v>
+        <v>329.2149694407439</v>
       </c>
       <c r="W43" t="n">
-        <v>2153.047432775376</v>
+        <v>329.2149694407439</v>
       </c>
       <c r="X43" t="n">
-        <v>1925.057881877359</v>
+        <v>329.2149694407439</v>
       </c>
       <c r="Y43" t="n">
-        <v>1925.057881877359</v>
+        <v>108.4223902972138</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1673.214277217303</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C44" t="n">
-        <v>1673.214277217303</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="D44" t="n">
-        <v>1673.214277217303</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E44" t="n">
-        <v>1287.426024619058</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>876.4401198294509</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G44" t="n">
-        <v>458.8702131654419</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H44" t="n">
-        <v>135.7095363013572</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036447</v>
@@ -7649,19 +7649,19 @@
         <v>53.94298182036447</v>
       </c>
       <c r="K44" t="n">
-        <v>397.302428633071</v>
+        <v>298.2566236517478</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5468118656433</v>
+        <v>776.5010068843201</v>
       </c>
       <c r="M44" t="n">
-        <v>1424.292381512285</v>
+        <v>1325.246576530962</v>
       </c>
       <c r="N44" t="n">
-        <v>1967.285230625827</v>
+        <v>1868.239425644504</v>
       </c>
       <c r="O44" t="n">
-        <v>2434.830342748688</v>
+        <v>2335.784537767365</v>
       </c>
       <c r="P44" t="n">
         <v>2697.149091018223</v>
@@ -7673,25 +7673,25 @@
         <v>2666.863812741185</v>
       </c>
       <c r="S44" t="n">
-        <v>2666.863812741185</v>
+        <v>2499.662354069319</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.953449257236</v>
+        <v>2499.662354069319</v>
       </c>
       <c r="U44" t="n">
-        <v>2449.953449257236</v>
+        <v>2499.662354069319</v>
       </c>
       <c r="V44" t="n">
-        <v>2449.953449257236</v>
+        <v>2349.187483458676</v>
       </c>
       <c r="W44" t="n">
-        <v>2449.953449257236</v>
+        <v>1996.418828188562</v>
       </c>
       <c r="X44" t="n">
-        <v>2449.953449257236</v>
+        <v>1996.418828188562</v>
       </c>
       <c r="Y44" t="n">
-        <v>2059.814117281424</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036447</v>
+        <v>148.715705219565</v>
       </c>
       <c r="K45" t="n">
-        <v>171.4110044133354</v>
+        <v>437.3182278008978</v>
       </c>
       <c r="L45" t="n">
-        <v>620.8771080741619</v>
+        <v>886.7843314617244</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.362072740141</v>
+        <v>1463.269296127703</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.811892423736</v>
+        <v>1606.37147495167</v>
       </c>
       <c r="O45" t="n">
-        <v>2294.094124228101</v>
+        <v>2095.653706756035</v>
       </c>
       <c r="P45" t="n">
-        <v>2669.783183457226</v>
+        <v>2471.34276598516</v>
       </c>
       <c r="Q45" t="n">
         <v>2669.783183457226</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K46" t="n">
-        <v>1954.450561652088</v>
+        <v>130.3649009555025</v>
       </c>
       <c r="L46" t="n">
-        <v>2107.770741602159</v>
+        <v>283.6850809055732</v>
       </c>
       <c r="M46" t="n">
-        <v>2279.814497378524</v>
+        <v>455.7288366819382</v>
       </c>
       <c r="N46" t="n">
-        <v>2453.202053601082</v>
+        <v>629.1163929044963</v>
       </c>
       <c r="O46" t="n">
-        <v>2597.337229847316</v>
+        <v>773.2515691507308</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="Q46" t="n">
-        <v>2682.527602252569</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="R46" t="n">
-        <v>2542.325596673731</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="S46" t="n">
-        <v>2393.7458516734</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="T46" t="n">
-        <v>2167.192615191957</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="U46" t="n">
-        <v>1878.02864251695</v>
+        <v>873.0634303216378</v>
       </c>
       <c r="V46" t="n">
-        <v>1878.02864251695</v>
+        <v>618.378942115751</v>
       </c>
       <c r="W46" t="n">
-        <v>1878.02864251695</v>
+        <v>328.9617720787904</v>
       </c>
       <c r="X46" t="n">
-        <v>1878.02864251695</v>
+        <v>100.972221180773</v>
       </c>
       <c r="Y46" t="n">
-        <v>1878.02864251695</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>3.323403138899764</v>
+        <v>3.323403138899351</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>121.9631174160561</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>10.30435327322184</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.632421602449114</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>199.7539903887146</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>3.323403138899351</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>30.36101170485273</v>
+        <v>30.36101170485274</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>145.5996373385623</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.2345273136524</v>
+        <v>9.632421602449114</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>30.36101170485273</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>10.30435327322206</v>
       </c>
       <c r="O18" t="n">
-        <v>20.55432184195426</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>30.36101170485273</v>
+        <v>30.36101170485274</v>
       </c>
       <c r="K24" t="n">
-        <v>91.60210571120363</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>306.4792430421785</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>30.36101170485273</v>
+        <v>30.36101170485274</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>20.55432184195475</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>101.2345273136528</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720746</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>30.36101170485273</v>
+        <v>30.36101170485271</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>261.9975848812623</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>155.2320589410112</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>30.36101170485273</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>106.0343769087788</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>134.9015859422474</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720746</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>30.36101170485273</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>10.30435327322201</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>101.2345273136528</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928332</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>145.5996373385618</v>
       </c>
       <c r="Q39" t="n">
-        <v>155.2320589410112</v>
+        <v>9.632421602449085</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,13 +11072,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>130.7191118514448</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.7860748564224</v>
+        <v>16.20592971727268</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36101170485271</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>261.997584881262</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>59.50203530545424</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>19.0618134186756</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>224.0991449132625</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>221.7524405135802</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>16.20592971727268</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>30.36101170485271</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>91.60210571120302</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>10.30435327322155</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.632421602449085</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>206.2831525255983</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>129.2229197589395</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.6795013432093</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,10 +22799,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>371.3427523386205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,10 +22948,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
-        <v>10.74592769735753</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23018,22 +23018,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>366.1044387832769</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23066,22 +23066,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.942710371801</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>350.3180236968908</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>29.98242549426742</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>165.5294440851476</v>
@@ -23312,19 +23312,19 @@
         <v>214.7412598491097</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.6156579653187</v>
       </c>
       <c r="I13" t="n">
-        <v>80.99696469859325</v>
+        <v>129.7051885209845</v>
       </c>
       <c r="J13" t="n">
         <v>32.83285231087137</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799801</v>
       </c>
       <c r="R13" t="n">
         <v>138.7999855230492</v>
       </c>
       <c r="S13" t="n">
-        <v>209.0970956062507</v>
+        <v>18.82188417771292</v>
       </c>
       <c r="T13" t="n">
         <v>224.2877041166283</v>
       </c>
       <c r="U13" t="n">
-        <v>286.272332948257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23513,7 @@
         <v>319.9290700954439</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.8972899157237</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>29.98242549426743</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>116.7874440981977</v>
+        <v>212.3161046006059</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>98.86210105612687</v>
       </c>
       <c r="G16" t="n">
         <v>167.1348785408378</v>
@@ -23695,28 +23695,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799801</v>
       </c>
       <c r="R16" t="n">
-        <v>47.52787417792473</v>
+        <v>138.7999855230492</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>209.0970956062507</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>224.2877041166283</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23735,22 +23735,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>195.2061507754406</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.3942075973688</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>319.9290700954439</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.8972899157237</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>29.98242549426743</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>165.5294440851476</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>35.3840220820469</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.9036865844267</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>167.1348785408378</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>154.6156579653187</v>
       </c>
       <c r="I19" t="n">
         <v>129.7051885209845</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799801</v>
       </c>
       <c r="R19" t="n">
         <v>138.7999855230492</v>
@@ -23944,10 +23944,10 @@
         <v>224.2877041166283</v>
       </c>
       <c r="U19" t="n">
-        <v>286.272332948257</v>
+        <v>14.00373059241571</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>203.5484194697041</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>319.9290700954439</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>110.178859904923</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>29.98242549426743</v>
       </c>
       <c r="S20" t="n">
         <v>165.5294440851476</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>40.14860137738377</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.1348785408378</v>
       </c>
       <c r="H22" t="n">
         <v>154.6156579653187</v>
@@ -24169,22 +24169,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799801</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>138.7999855230492</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>209.0970956062507</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>224.2877041166283</v>
       </c>
       <c r="U22" t="n">
-        <v>214.6627527187625</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.3942075973688</v>
+        <v>356.6859385249779</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24254,13 +24254,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>165.5294440851476</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U23" t="n">
-        <v>205.0243046978124</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>85.71293288768166</v>
       </c>
       <c r="D25" t="n">
-        <v>129.0593390236489</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799801</v>
       </c>
       <c r="R25" t="n">
         <v>138.7999855230492</v>
@@ -24415,7 +24415,7 @@
         <v>209.0970956062507</v>
       </c>
       <c r="T25" t="n">
-        <v>224.2877041166283</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.272332948257</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>317.4199849494898</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,25 +24491,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>165.5294440851476</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7412598491097</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>123.8521277622326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799801</v>
       </c>
       <c r="R28" t="n">
         <v>138.7999855230492</v>
@@ -24655,19 +24655,19 @@
         <v>224.2877041166283</v>
       </c>
       <c r="U28" t="n">
-        <v>286.272332948257</v>
+        <v>14.00373059241571</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>99.72004324339972</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>369.0778635548514</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>76.22835997090164</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.9824254942674</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>165.5294440851476</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>143.754919492855</v>
+        <v>167.1348785408378</v>
       </c>
       <c r="H31" t="n">
         <v>154.6156579653187</v>
@@ -24859,7 +24859,7 @@
         <v>129.7051885209845</v>
       </c>
       <c r="J31" t="n">
-        <v>32.83285231087137</v>
+        <v>32.83285231087136</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,22 +24880,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799798</v>
       </c>
       <c r="R31" t="n">
         <v>138.7999855230492</v>
       </c>
       <c r="S31" t="n">
-        <v>209.0970956062507</v>
+        <v>160.8655319787031</v>
       </c>
       <c r="T31" t="n">
-        <v>224.2877041166283</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.272332948257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>253.0841196503935</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>142.6790081627449</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.8972899157237</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>29.98242549426742</v>
+        <v>29.9824254942674</v>
       </c>
       <c r="S32" t="n">
         <v>165.5294440851476</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1929705144152</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>143.7549194928552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.1348785408378</v>
       </c>
       <c r="H34" t="n">
         <v>154.6156579653187</v>
@@ -25096,7 +25096,7 @@
         <v>129.7051885209845</v>
       </c>
       <c r="J34" t="n">
-        <v>32.83285231087137</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.47527387799799</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>138.7999855230492</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>209.0970956062507</v>
+        <v>96.25795163920267</v>
       </c>
       <c r="T34" t="n">
         <v>224.2877041166283</v>
       </c>
       <c r="U34" t="n">
-        <v>286.272332948257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,10 +25166,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.3942075973688</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>319.9290700954439</v>
+        <v>310.6715899771152</v>
       </c>
       <c r="I35" t="n">
         <v>136.8972899157237</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.98242549426742</v>
+        <v>29.9824254942674</v>
       </c>
       <c r="S35" t="n">
         <v>165.5294440851476</v>
@@ -25208,7 +25208,7 @@
         <v>214.7412598491097</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>193.8141745697256</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,25 +25315,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>113.8298170094645</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1348785408378</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154.6156579653187</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>32.83285231087137</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.47527387799799</v>
+        <v>14.47527387799798</v>
       </c>
       <c r="R37" t="n">
         <v>138.7999855230492</v>
@@ -25363,7 +25363,7 @@
         <v>209.0970956062507</v>
       </c>
       <c r="T37" t="n">
-        <v>55.29630234698053</v>
+        <v>224.2877041166283</v>
       </c>
       <c r="U37" t="n">
         <v>286.272332948257</v>
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.62081179311758</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.774442935265711</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>29.9824254942674</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>165.5294440851476</v>
       </c>
       <c r="T38" t="n">
         <v>214.7412598491097</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.31157679382176</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,22 +25600,22 @@
         <v>209.0970956062507</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>224.2877041166283</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>99.72004324339986</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25628,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.3942075973688</v>
       </c>
       <c r="H41" t="n">
         <v>319.9290700954439</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>29.9824254942674</v>
       </c>
       <c r="S41" t="n">
         <v>165.5294440851476</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1929705144152</v>
       </c>
       <c r="V41" t="n">
-        <v>145.3778685980744</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>300.8083635436234</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>125.8973657898565</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0565260514076</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,19 +25840,19 @@
         <v>224.2877041166283</v>
       </c>
       <c r="U43" t="n">
-        <v>286.272332948257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.3942075973688</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>319.9290700954439</v>
       </c>
       <c r="I44" t="n">
-        <v>55.94840097954095</v>
+        <v>136.8972899157237</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>165.5294440851476</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.7412598491097</v>
       </c>
       <c r="U44" t="n">
         <v>251.1929705144152</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>178.782136565598</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26065,31 +26065,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.47527387799798</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>138.7999855230492</v>
       </c>
       <c r="S46" t="n">
-        <v>62.00314805592254</v>
+        <v>209.0970956062507</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>224.2877041166283</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.272332948257</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>172.0257063852903</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>738255.8117143274</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738255.8117143273</v>
+        <v>738255.8117143274</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742620.6495220277</v>
+        <v>742620.6495220275</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742620.6495220276</v>
+        <v>742620.6495220275</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>788832.182953554</v>
+        <v>788832.1829535539</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>788832.182953554</v>
+        <v>788832.1829535537</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>788832.1829535539</v>
+        <v>788832.182953554</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>788832.1829535539</v>
+        <v>788832.182953554</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>788832.182953554</v>
+        <v>788832.1829535541</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742620.6495220277</v>
+        <v>742620.6495220276</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173336</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
         <v>318067.8710173334</v>
@@ -26323,37 +26323,37 @@
         <v>322952.4765993587</v>
       </c>
       <c r="F2" t="n">
-        <v>322952.4765993587</v>
+        <v>322952.4765993588</v>
       </c>
       <c r="G2" t="n">
         <v>342097.9498485065</v>
       </c>
       <c r="H2" t="n">
-        <v>342097.9498485065</v>
+        <v>342097.9498485067</v>
       </c>
       <c r="I2" t="n">
+        <v>342097.9498485068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>342097.9498485066</v>
+      </c>
+      <c r="K2" t="n">
         <v>342097.9498485067</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>342097.9498485067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>342097.9498485065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>342097.9498485066</v>
       </c>
       <c r="M2" t="n">
         <v>342097.9498485068</v>
       </c>
       <c r="N2" t="n">
-        <v>342097.9498485067</v>
+        <v>342097.9498485068</v>
       </c>
       <c r="O2" t="n">
-        <v>322952.4765993588</v>
+        <v>322952.4765993587</v>
       </c>
       <c r="P2" t="n">
-        <v>322952.4765993588</v>
+        <v>322952.4765993585</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77932.62399087941</v>
+        <v>77932.62399087937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="C4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>36020.09663780085</v>
+        <v>38513.6850046474</v>
       </c>
       <c r="F4" t="n">
-        <v>36020.09663780085</v>
+        <v>38513.6850046474</v>
       </c>
       <c r="G4" t="n">
-        <v>40221.6116994092</v>
+        <v>43006.5519032333</v>
       </c>
       <c r="H4" t="n">
-        <v>40221.6116994092</v>
+        <v>43006.5519032333</v>
       </c>
       <c r="I4" t="n">
-        <v>40221.6116994092</v>
+        <v>43006.5519032333</v>
       </c>
       <c r="J4" t="n">
-        <v>40221.6116994092</v>
+        <v>43006.5519032333</v>
       </c>
       <c r="K4" t="n">
-        <v>40221.61169940919</v>
+        <v>43006.5519032333</v>
       </c>
       <c r="L4" t="n">
-        <v>40221.6116994092</v>
+        <v>43006.5519032333</v>
       </c>
       <c r="M4" t="n">
-        <v>40221.6116994092</v>
+        <v>43006.55190323331</v>
       </c>
       <c r="N4" t="n">
-        <v>40221.61169940919</v>
+        <v>43006.55190323331</v>
       </c>
       <c r="O4" t="n">
-        <v>36020.09663780085</v>
+        <v>38513.68500464741</v>
       </c>
       <c r="P4" t="n">
-        <v>36020.09663780085</v>
+        <v>38513.68500464741</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>51346.14679504375</v>
+        <v>51346.14679504374</v>
       </c>
       <c r="F5" t="n">
-        <v>51346.14679504375</v>
+        <v>51346.14679504374</v>
       </c>
       <c r="G5" t="n">
-        <v>58197.44177623354</v>
+        <v>58197.44177623352</v>
       </c>
       <c r="H5" t="n">
-        <v>58197.44177623354</v>
+        <v>58197.44177623352</v>
       </c>
       <c r="I5" t="n">
-        <v>58197.44177623354</v>
+        <v>58197.44177623352</v>
       </c>
       <c r="J5" t="n">
-        <v>58197.44177623354</v>
+        <v>58197.44177623352</v>
       </c>
       <c r="K5" t="n">
         <v>58197.44177623354</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396655.2047037984</v>
+        <v>-399561.7424361891</v>
       </c>
       <c r="C6" t="n">
-        <v>193312.6745107462</v>
+        <v>190406.1367783555</v>
       </c>
       <c r="D6" t="n">
-        <v>193312.674510746</v>
+        <v>190406.1367783554</v>
       </c>
       <c r="E6" t="n">
-        <v>157653.6091756347</v>
+        <v>155160.0208087882</v>
       </c>
       <c r="F6" t="n">
-        <v>235586.2331665141</v>
+        <v>233092.6447996676</v>
       </c>
       <c r="G6" t="n">
-        <v>212793.416357742</v>
+        <v>210008.476153918</v>
       </c>
       <c r="H6" t="n">
-        <v>243678.8963728637</v>
+        <v>240893.9561690399</v>
       </c>
       <c r="I6" t="n">
-        <v>243678.8963728639</v>
+        <v>240893.95616904</v>
       </c>
       <c r="J6" t="n">
-        <v>67255.67718027103</v>
+        <v>64470.73697644683</v>
       </c>
       <c r="K6" t="n">
-        <v>243678.8963728637</v>
+        <v>240893.9561690398</v>
       </c>
       <c r="L6" t="n">
-        <v>243678.8963728638</v>
+        <v>240893.9561690398</v>
       </c>
       <c r="M6" t="n">
-        <v>243678.896372864</v>
+        <v>240893.9561690399</v>
       </c>
       <c r="N6" t="n">
-        <v>243678.896372864</v>
+        <v>240893.9561690399</v>
       </c>
       <c r="O6" t="n">
-        <v>235586.2331665142</v>
+        <v>233092.6447996676</v>
       </c>
       <c r="P6" t="n">
-        <v>235586.2331665142</v>
+        <v>233092.6447996674</v>
       </c>
     </row>
   </sheetData>
@@ -26738,28 +26738,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>474.746817044347</v>
+        <v>474.7468170443469</v>
       </c>
       <c r="F3" t="n">
-        <v>474.746817044347</v>
+        <v>474.7468170443469</v>
       </c>
       <c r="G3" t="n">
-        <v>474.746817044347</v>
+        <v>474.7468170443469</v>
       </c>
       <c r="H3" t="n">
-        <v>474.746817044347</v>
+        <v>474.7468170443469</v>
       </c>
       <c r="I3" t="n">
-        <v>474.746817044347</v>
+        <v>474.7468170443469</v>
       </c>
       <c r="J3" t="n">
-        <v>474.746817044347</v>
+        <v>474.7468170443469</v>
       </c>
       <c r="K3" t="n">
         <v>474.746817044347</v>
@@ -26796,31 +26796,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>786.9730454714929</v>
+        <v>786.9730454714928</v>
       </c>
       <c r="H4" t="n">
-        <v>786.9730454714929</v>
+        <v>786.9730454714928</v>
       </c>
       <c r="I4" t="n">
-        <v>786.9730454714929</v>
+        <v>786.9730454714928</v>
       </c>
       <c r="J4" t="n">
-        <v>786.9730454714929</v>
+        <v>786.9730454714928</v>
       </c>
       <c r="K4" t="n">
         <v>786.973045471493</v>
       </c>
       <c r="L4" t="n">
-        <v>786.9730454714929</v>
+        <v>786.973045471493</v>
       </c>
       <c r="M4" t="n">
-        <v>786.9730454714929</v>
+        <v>786.973045471493</v>
       </c>
       <c r="N4" t="n">
         <v>786.973045471493</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.00315282726029</v>
+        <v>97.00315282726024</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.908529917766218</v>
+        <v>1.908529917766217</v>
       </c>
       <c r="H11" t="n">
         <v>19.54573202032328</v>
       </c>
       <c r="I11" t="n">
-        <v>73.57859965468218</v>
+        <v>73.57859965468217</v>
       </c>
       <c r="J11" t="n">
-        <v>161.9840911080107</v>
+        <v>161.9840911080106</v>
       </c>
       <c r="K11" t="n">
         <v>242.7721625270547</v>
       </c>
       <c r="L11" t="n">
-        <v>301.1803349978927</v>
+        <v>301.1803349978926</v>
       </c>
       <c r="M11" t="n">
         <v>335.1211539229676</v>
@@ -31774,13 +31774,13 @@
         <v>340.5437645518209</v>
       </c>
       <c r="O11" t="n">
-        <v>321.5658201820331</v>
+        <v>321.565820182033</v>
       </c>
       <c r="P11" t="n">
         <v>274.4489878371795</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.0997601571768</v>
+        <v>206.0997601571767</v>
       </c>
       <c r="R11" t="n">
         <v>119.8866924468823</v>
@@ -31832,13 +31832,13 @@
         <v>1.021153531001048</v>
       </c>
       <c r="H12" t="n">
-        <v>9.862193312562757</v>
+        <v>9.862193312562756</v>
       </c>
       <c r="I12" t="n">
-        <v>35.15813692262382</v>
+        <v>35.15813692262381</v>
       </c>
       <c r="J12" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181395</v>
       </c>
       <c r="K12" t="n">
         <v>164.8939015388842</v>
@@ -31862,10 +31862,10 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R12" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320545</v>
       </c>
       <c r="S12" t="n">
-        <v>18.96747896398876</v>
+        <v>18.96747896398875</v>
       </c>
       <c r="T12" t="n">
         <v>4.115965328903346</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209534</v>
       </c>
       <c r="H13" t="n">
-        <v>7.611514542120847</v>
+        <v>7.611514542120846</v>
       </c>
       <c r="I13" t="n">
         <v>25.74528640627377</v>
       </c>
       <c r="J13" t="n">
-        <v>60.52632780580141</v>
+        <v>60.5263278058014</v>
       </c>
       <c r="K13" t="n">
-        <v>99.46334953814349</v>
+        <v>99.46334953814348</v>
       </c>
       <c r="L13" t="n">
         <v>127.2788433761189</v>
@@ -31935,13 +31935,13 @@
         <v>121.005959203369</v>
       </c>
       <c r="P13" t="n">
-        <v>103.5415025239015</v>
+        <v>103.5415025239014</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369638</v>
       </c>
       <c r="R13" t="n">
-        <v>38.49340585412032</v>
+        <v>38.49340585412031</v>
       </c>
       <c r="S13" t="n">
         <v>14.91950243072152</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.908529917766218</v>
+        <v>1.908529917766217</v>
       </c>
       <c r="H14" t="n">
         <v>19.54573202032328</v>
       </c>
       <c r="I14" t="n">
-        <v>73.57859965468218</v>
+        <v>73.57859965468217</v>
       </c>
       <c r="J14" t="n">
-        <v>161.9840911080107</v>
+        <v>161.9840911080106</v>
       </c>
       <c r="K14" t="n">
         <v>242.7721625270547</v>
       </c>
       <c r="L14" t="n">
-        <v>301.1803349978927</v>
+        <v>301.1803349978926</v>
       </c>
       <c r="M14" t="n">
         <v>335.1211539229676</v>
@@ -32011,13 +32011,13 @@
         <v>340.5437645518209</v>
       </c>
       <c r="O14" t="n">
-        <v>321.5658201820331</v>
+        <v>321.565820182033</v>
       </c>
       <c r="P14" t="n">
         <v>274.4489878371795</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.0997601571768</v>
+        <v>206.0997601571767</v>
       </c>
       <c r="R14" t="n">
         <v>119.8866924468823</v>
@@ -32069,13 +32069,13 @@
         <v>1.021153531001048</v>
       </c>
       <c r="H15" t="n">
-        <v>9.862193312562757</v>
+        <v>9.862193312562756</v>
       </c>
       <c r="I15" t="n">
-        <v>35.15813692262382</v>
+        <v>35.15813692262381</v>
       </c>
       <c r="J15" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181395</v>
       </c>
       <c r="K15" t="n">
         <v>164.8939015388842</v>
@@ -32099,10 +32099,10 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R15" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320545</v>
       </c>
       <c r="S15" t="n">
-        <v>18.96747896398876</v>
+        <v>18.96747896398875</v>
       </c>
       <c r="T15" t="n">
         <v>4.115965328903346</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209534</v>
       </c>
       <c r="H16" t="n">
-        <v>7.611514542120847</v>
+        <v>7.611514542120846</v>
       </c>
       <c r="I16" t="n">
         <v>25.74528640627377</v>
       </c>
       <c r="J16" t="n">
-        <v>60.52632780580141</v>
+        <v>60.5263278058014</v>
       </c>
       <c r="K16" t="n">
-        <v>99.46334953814349</v>
+        <v>99.46334953814348</v>
       </c>
       <c r="L16" t="n">
         <v>127.2788433761189</v>
@@ -32172,13 +32172,13 @@
         <v>121.005959203369</v>
       </c>
       <c r="P16" t="n">
-        <v>103.5415025239015</v>
+        <v>103.5415025239014</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369638</v>
       </c>
       <c r="R16" t="n">
-        <v>38.49340585412032</v>
+        <v>38.49340585412031</v>
       </c>
       <c r="S16" t="n">
         <v>14.91950243072152</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.908529917766218</v>
+        <v>1.908529917766217</v>
       </c>
       <c r="H17" t="n">
         <v>19.54573202032328</v>
       </c>
       <c r="I17" t="n">
-        <v>73.57859965468218</v>
+        <v>73.57859965468217</v>
       </c>
       <c r="J17" t="n">
-        <v>161.9840911080107</v>
+        <v>161.9840911080106</v>
       </c>
       <c r="K17" t="n">
         <v>242.7721625270547</v>
       </c>
       <c r="L17" t="n">
-        <v>301.1803349978927</v>
+        <v>301.1803349978926</v>
       </c>
       <c r="M17" t="n">
         <v>335.1211539229676</v>
@@ -32248,13 +32248,13 @@
         <v>340.5437645518209</v>
       </c>
       <c r="O17" t="n">
-        <v>321.5658201820331</v>
+        <v>321.565820182033</v>
       </c>
       <c r="P17" t="n">
         <v>274.4489878371795</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.0997601571768</v>
+        <v>206.0997601571767</v>
       </c>
       <c r="R17" t="n">
         <v>119.8866924468823</v>
@@ -32306,13 +32306,13 @@
         <v>1.021153531001048</v>
       </c>
       <c r="H18" t="n">
-        <v>9.862193312562757</v>
+        <v>9.862193312562756</v>
       </c>
       <c r="I18" t="n">
-        <v>35.15813692262382</v>
+        <v>35.15813692262381</v>
       </c>
       <c r="J18" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181395</v>
       </c>
       <c r="K18" t="n">
         <v>164.8939015388842</v>
@@ -32336,10 +32336,10 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R18" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320545</v>
       </c>
       <c r="S18" t="n">
-        <v>18.96747896398876</v>
+        <v>18.96747896398875</v>
       </c>
       <c r="T18" t="n">
         <v>4.115965328903346</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209534</v>
       </c>
       <c r="H19" t="n">
-        <v>7.611514542120847</v>
+        <v>7.611514542120846</v>
       </c>
       <c r="I19" t="n">
         <v>25.74528640627377</v>
       </c>
       <c r="J19" t="n">
-        <v>60.52632780580141</v>
+        <v>60.5263278058014</v>
       </c>
       <c r="K19" t="n">
-        <v>99.46334953814349</v>
+        <v>99.46334953814348</v>
       </c>
       <c r="L19" t="n">
         <v>127.2788433761189</v>
@@ -32409,13 +32409,13 @@
         <v>121.005959203369</v>
       </c>
       <c r="P19" t="n">
-        <v>103.5415025239015</v>
+        <v>103.5415025239014</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369638</v>
       </c>
       <c r="R19" t="n">
-        <v>38.49340585412032</v>
+        <v>38.49340585412031</v>
       </c>
       <c r="S19" t="n">
         <v>14.91950243072152</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.908529917766218</v>
+        <v>1.908529917766217</v>
       </c>
       <c r="H20" t="n">
         <v>19.54573202032328</v>
       </c>
       <c r="I20" t="n">
-        <v>73.57859965468218</v>
+        <v>73.57859965468217</v>
       </c>
       <c r="J20" t="n">
-        <v>161.9840911080107</v>
+        <v>161.9840911080106</v>
       </c>
       <c r="K20" t="n">
         <v>242.7721625270547</v>
       </c>
       <c r="L20" t="n">
-        <v>301.1803349978927</v>
+        <v>301.1803349978926</v>
       </c>
       <c r="M20" t="n">
         <v>335.1211539229676</v>
@@ -32485,13 +32485,13 @@
         <v>340.5437645518209</v>
       </c>
       <c r="O20" t="n">
-        <v>321.5658201820331</v>
+        <v>321.565820182033</v>
       </c>
       <c r="P20" t="n">
         <v>274.4489878371795</v>
       </c>
       <c r="Q20" t="n">
-        <v>206.0997601571768</v>
+        <v>206.0997601571767</v>
       </c>
       <c r="R20" t="n">
         <v>119.8866924468823</v>
@@ -32543,13 +32543,13 @@
         <v>1.021153531001048</v>
       </c>
       <c r="H21" t="n">
-        <v>9.862193312562757</v>
+        <v>9.862193312562756</v>
       </c>
       <c r="I21" t="n">
-        <v>35.15813692262382</v>
+        <v>35.15813692262381</v>
       </c>
       <c r="J21" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181395</v>
       </c>
       <c r="K21" t="n">
         <v>164.8939015388842</v>
@@ -32573,10 +32573,10 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R21" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320545</v>
       </c>
       <c r="S21" t="n">
-        <v>18.96747896398876</v>
+        <v>18.96747896398875</v>
       </c>
       <c r="T21" t="n">
         <v>4.115965328903346</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209534</v>
       </c>
       <c r="H22" t="n">
-        <v>7.611514542120847</v>
+        <v>7.611514542120846</v>
       </c>
       <c r="I22" t="n">
         <v>25.74528640627377</v>
       </c>
       <c r="J22" t="n">
-        <v>60.52632780580141</v>
+        <v>60.5263278058014</v>
       </c>
       <c r="K22" t="n">
-        <v>99.46334953814349</v>
+        <v>99.46334953814348</v>
       </c>
       <c r="L22" t="n">
         <v>127.2788433761189</v>
@@ -32646,13 +32646,13 @@
         <v>121.005959203369</v>
       </c>
       <c r="P22" t="n">
-        <v>103.5415025239015</v>
+        <v>103.5415025239014</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369638</v>
       </c>
       <c r="R22" t="n">
-        <v>38.49340585412032</v>
+        <v>38.49340585412031</v>
       </c>
       <c r="S22" t="n">
         <v>14.91950243072152</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.908529917766218</v>
+        <v>1.908529917766217</v>
       </c>
       <c r="H23" t="n">
         <v>19.54573202032328</v>
       </c>
       <c r="I23" t="n">
-        <v>73.57859965468218</v>
+        <v>73.57859965468217</v>
       </c>
       <c r="J23" t="n">
-        <v>161.9840911080107</v>
+        <v>161.9840911080106</v>
       </c>
       <c r="K23" t="n">
         <v>242.7721625270547</v>
       </c>
       <c r="L23" t="n">
-        <v>301.1803349978927</v>
+        <v>301.1803349978926</v>
       </c>
       <c r="M23" t="n">
         <v>335.1211539229676</v>
@@ -32722,13 +32722,13 @@
         <v>340.5437645518209</v>
       </c>
       <c r="O23" t="n">
-        <v>321.5658201820331</v>
+        <v>321.565820182033</v>
       </c>
       <c r="P23" t="n">
         <v>274.4489878371795</v>
       </c>
       <c r="Q23" t="n">
-        <v>206.0997601571768</v>
+        <v>206.0997601571767</v>
       </c>
       <c r="R23" t="n">
         <v>119.8866924468823</v>
@@ -32780,13 +32780,13 @@
         <v>1.021153531001048</v>
       </c>
       <c r="H24" t="n">
-        <v>9.862193312562757</v>
+        <v>9.862193312562756</v>
       </c>
       <c r="I24" t="n">
-        <v>35.15813692262382</v>
+        <v>35.15813692262381</v>
       </c>
       <c r="J24" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181395</v>
       </c>
       <c r="K24" t="n">
         <v>164.8939015388842</v>
@@ -32810,10 +32810,10 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R24" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320545</v>
       </c>
       <c r="S24" t="n">
-        <v>18.96747896398876</v>
+        <v>18.96747896398875</v>
       </c>
       <c r="T24" t="n">
         <v>4.115965328903346</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209534</v>
       </c>
       <c r="H25" t="n">
-        <v>7.611514542120847</v>
+        <v>7.611514542120846</v>
       </c>
       <c r="I25" t="n">
         <v>25.74528640627377</v>
       </c>
       <c r="J25" t="n">
-        <v>60.52632780580141</v>
+        <v>60.5263278058014</v>
       </c>
       <c r="K25" t="n">
-        <v>99.46334953814349</v>
+        <v>99.46334953814348</v>
       </c>
       <c r="L25" t="n">
         <v>127.2788433761189</v>
@@ -32883,13 +32883,13 @@
         <v>121.005959203369</v>
       </c>
       <c r="P25" t="n">
-        <v>103.5415025239015</v>
+        <v>103.5415025239014</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369638</v>
       </c>
       <c r="R25" t="n">
-        <v>38.49340585412032</v>
+        <v>38.49340585412031</v>
       </c>
       <c r="S25" t="n">
         <v>14.91950243072152</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.908529917766218</v>
+        <v>1.908529917766217</v>
       </c>
       <c r="H26" t="n">
         <v>19.54573202032328</v>
       </c>
       <c r="I26" t="n">
-        <v>73.57859965468218</v>
+        <v>73.57859965468217</v>
       </c>
       <c r="J26" t="n">
-        <v>161.9840911080107</v>
+        <v>161.9840911080106</v>
       </c>
       <c r="K26" t="n">
         <v>242.7721625270547</v>
       </c>
       <c r="L26" t="n">
-        <v>301.1803349978927</v>
+        <v>301.1803349978926</v>
       </c>
       <c r="M26" t="n">
         <v>335.1211539229676</v>
@@ -32959,13 +32959,13 @@
         <v>340.5437645518209</v>
       </c>
       <c r="O26" t="n">
-        <v>321.5658201820331</v>
+        <v>321.565820182033</v>
       </c>
       <c r="P26" t="n">
         <v>274.4489878371795</v>
       </c>
       <c r="Q26" t="n">
-        <v>206.0997601571768</v>
+        <v>206.0997601571767</v>
       </c>
       <c r="R26" t="n">
         <v>119.8866924468823</v>
@@ -33017,13 +33017,13 @@
         <v>1.021153531001048</v>
       </c>
       <c r="H27" t="n">
-        <v>9.862193312562757</v>
+        <v>9.862193312562756</v>
       </c>
       <c r="I27" t="n">
-        <v>35.15813692262382</v>
+        <v>35.15813692262381</v>
       </c>
       <c r="J27" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181395</v>
       </c>
       <c r="K27" t="n">
         <v>164.8939015388842</v>
@@ -33047,10 +33047,10 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R27" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320545</v>
       </c>
       <c r="S27" t="n">
-        <v>18.96747896398876</v>
+        <v>18.96747896398875</v>
       </c>
       <c r="T27" t="n">
         <v>4.115965328903346</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209534</v>
       </c>
       <c r="H28" t="n">
-        <v>7.611514542120847</v>
+        <v>7.611514542120846</v>
       </c>
       <c r="I28" t="n">
         <v>25.74528640627377</v>
       </c>
       <c r="J28" t="n">
-        <v>60.52632780580141</v>
+        <v>60.5263278058014</v>
       </c>
       <c r="K28" t="n">
-        <v>99.46334953814349</v>
+        <v>99.46334953814348</v>
       </c>
       <c r="L28" t="n">
         <v>127.2788433761189</v>
@@ -33120,13 +33120,13 @@
         <v>121.005959203369</v>
       </c>
       <c r="P28" t="n">
-        <v>103.5415025239015</v>
+        <v>103.5415025239014</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369638</v>
       </c>
       <c r="R28" t="n">
-        <v>38.49340585412032</v>
+        <v>38.49340585412031</v>
       </c>
       <c r="S28" t="n">
         <v>14.91950243072152</v>
@@ -33208,10 +33208,10 @@
         <v>119.8866924468823</v>
       </c>
       <c r="S29" t="n">
-        <v>43.49062550109772</v>
+        <v>43.49062550109773</v>
       </c>
       <c r="T29" t="n">
-        <v>8.354589715021621</v>
+        <v>8.354589715021623</v>
       </c>
       <c r="U29" t="n">
         <v>0.1526823934212974</v>
@@ -33260,13 +33260,13 @@
         <v>35.15813692262382</v>
       </c>
       <c r="J30" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181398</v>
       </c>
       <c r="K30" t="n">
         <v>164.8939015388842</v>
       </c>
       <c r="L30" t="n">
-        <v>221.7201997903811</v>
+        <v>221.7201997903812</v>
       </c>
       <c r="M30" t="n">
         <v>258.7370152891691</v>
@@ -33284,16 +33284,16 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R30" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320547</v>
       </c>
       <c r="S30" t="n">
         <v>18.96747896398876</v>
       </c>
       <c r="T30" t="n">
-        <v>4.115965328903346</v>
+        <v>4.115965328903347</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06718115335533215</v>
+        <v>0.06718115335533216</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209536</v>
       </c>
       <c r="H31" t="n">
         <v>7.611514542120847</v>
       </c>
       <c r="I31" t="n">
-        <v>25.74528640627377</v>
+        <v>25.74528640627378</v>
       </c>
       <c r="J31" t="n">
-        <v>60.52632780580141</v>
+        <v>60.52632780580142</v>
       </c>
       <c r="K31" t="n">
         <v>99.46334953814349</v>
@@ -33360,7 +33360,7 @@
         <v>103.5415025239015</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369641</v>
       </c>
       <c r="R31" t="n">
         <v>38.49340585412032</v>
@@ -33372,7 +33372,7 @@
         <v>3.657885311653164</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04669640823387024</v>
+        <v>0.04669640823387025</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33445,10 +33445,10 @@
         <v>119.8866924468823</v>
       </c>
       <c r="S32" t="n">
-        <v>43.49062550109772</v>
+        <v>43.49062550109773</v>
       </c>
       <c r="T32" t="n">
-        <v>8.354589715021621</v>
+        <v>8.354589715021623</v>
       </c>
       <c r="U32" t="n">
         <v>0.1526823934212974</v>
@@ -33497,13 +33497,13 @@
         <v>35.15813692262382</v>
       </c>
       <c r="J33" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181398</v>
       </c>
       <c r="K33" t="n">
         <v>164.8939015388842</v>
       </c>
       <c r="L33" t="n">
-        <v>221.7201997903811</v>
+        <v>221.7201997903812</v>
       </c>
       <c r="M33" t="n">
         <v>258.7370152891691</v>
@@ -33521,16 +33521,16 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R33" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320547</v>
       </c>
       <c r="S33" t="n">
         <v>18.96747896398876</v>
       </c>
       <c r="T33" t="n">
-        <v>4.115965328903346</v>
+        <v>4.115965328903347</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06718115335533215</v>
+        <v>0.06718115335533216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209536</v>
       </c>
       <c r="H34" t="n">
         <v>7.611514542120847</v>
       </c>
       <c r="I34" t="n">
-        <v>25.74528640627377</v>
+        <v>25.74528640627378</v>
       </c>
       <c r="J34" t="n">
-        <v>60.52632780580141</v>
+        <v>60.52632780580142</v>
       </c>
       <c r="K34" t="n">
         <v>99.46334953814349</v>
@@ -33597,7 +33597,7 @@
         <v>103.5415025239015</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369641</v>
       </c>
       <c r="R34" t="n">
         <v>38.49340585412032</v>
@@ -33609,7 +33609,7 @@
         <v>3.657885311653164</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04669640823387024</v>
+        <v>0.04669640823387025</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33682,10 +33682,10 @@
         <v>119.8866924468823</v>
       </c>
       <c r="S35" t="n">
-        <v>43.49062550109772</v>
+        <v>43.49062550109773</v>
       </c>
       <c r="T35" t="n">
-        <v>8.354589715021621</v>
+        <v>8.354589715021623</v>
       </c>
       <c r="U35" t="n">
         <v>0.1526823934212974</v>
@@ -33734,13 +33734,13 @@
         <v>35.15813692262382</v>
       </c>
       <c r="J36" t="n">
-        <v>96.47661496181397</v>
+        <v>96.47661496181398</v>
       </c>
       <c r="K36" t="n">
         <v>164.8939015388842</v>
       </c>
       <c r="L36" t="n">
-        <v>221.7201997903811</v>
+        <v>221.7201997903812</v>
       </c>
       <c r="M36" t="n">
         <v>258.7370152891691</v>
@@ -33758,16 +33758,16 @@
         <v>130.3493524835724</v>
       </c>
       <c r="R36" t="n">
-        <v>63.40109379320546</v>
+        <v>63.40109379320547</v>
       </c>
       <c r="S36" t="n">
         <v>18.96747896398876</v>
       </c>
       <c r="T36" t="n">
-        <v>4.115965328903346</v>
+        <v>4.115965328903347</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06718115335533215</v>
+        <v>0.06718115335533216</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8561008176209535</v>
+        <v>0.8561008176209536</v>
       </c>
       <c r="H37" t="n">
         <v>7.611514542120847</v>
       </c>
       <c r="I37" t="n">
-        <v>25.74528640627377</v>
+        <v>25.74528640627378</v>
       </c>
       <c r="J37" t="n">
-        <v>60.52632780580141</v>
+        <v>60.52632780580142</v>
       </c>
       <c r="K37" t="n">
         <v>99.46334953814349</v>
@@ -33834,7 +33834,7 @@
         <v>103.5415025239015</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.68676937369639</v>
+        <v>71.68676937369641</v>
       </c>
       <c r="R37" t="n">
         <v>38.49340585412032</v>
@@ -33846,7 +33846,7 @@
         <v>3.657885311653164</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04669640823387024</v>
+        <v>0.04669640823387025</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35413,22 +35413,22 @@
         <v>346.8277240532389</v>
       </c>
       <c r="L11" t="n">
-        <v>483.0751345783559</v>
+        <v>483.0751345783558</v>
       </c>
       <c r="M11" t="n">
-        <v>108.0983238345946</v>
+        <v>108.0983238345942</v>
       </c>
       <c r="N11" t="n">
         <v>548.4776253672142</v>
       </c>
       <c r="O11" t="n">
-        <v>472.2677900230917</v>
+        <v>472.2677900230916</v>
       </c>
       <c r="P11" t="n">
         <v>365.0147002533926</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.109060942632</v>
+        <v>196.1090609426319</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.60210571120336</v>
+        <v>95.73002363555609</v>
       </c>
       <c r="K12" t="n">
-        <v>27.0524625645252</v>
+        <v>291.5176995771038</v>
       </c>
       <c r="L12" t="n">
         <v>454.0061653139661</v>
@@ -35498,16 +35498,16 @@
         <v>582.3080451171506</v>
       </c>
       <c r="N12" t="n">
-        <v>613.5856764480761</v>
+        <v>144.5476553777445</v>
       </c>
       <c r="O12" t="n">
-        <v>494.2244765700652</v>
+        <v>494.2244765700651</v>
       </c>
       <c r="P12" t="n">
         <v>379.4838982112369</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>200.4448661334</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>77.19385771226064</v>
+        <v>77.19385771226062</v>
       </c>
       <c r="L13" t="n">
         <v>154.868868636435</v>
@@ -35647,25 +35647,25 @@
         <v>150.0348017533981</v>
       </c>
       <c r="K14" t="n">
-        <v>222.4363018707888</v>
+        <v>346.8277240532389</v>
       </c>
       <c r="L14" t="n">
-        <v>483.0751345783559</v>
+        <v>483.0751345783558</v>
       </c>
       <c r="M14" t="n">
-        <v>554.2884541885273</v>
+        <v>108.0983238345942</v>
       </c>
       <c r="N14" t="n">
         <v>548.4776253672142</v>
       </c>
       <c r="O14" t="n">
-        <v>472.2677900230917</v>
+        <v>472.2677900230916</v>
       </c>
       <c r="P14" t="n">
-        <v>43.21599208190997</v>
+        <v>365.0147002533926</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.109060942632</v>
+        <v>196.1090609426319</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.0524625645252</v>
+        <v>291.5176995771038</v>
       </c>
       <c r="L15" t="n">
         <v>454.0061653139661</v>
@@ -35738,13 +35738,13 @@
         <v>613.5856764480761</v>
       </c>
       <c r="O15" t="n">
-        <v>494.2244765700652</v>
+        <v>494.2244765700651</v>
       </c>
       <c r="P15" t="n">
-        <v>379.4838982112369</v>
+        <v>206.620766909862</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.60210571120328</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>77.19385771226064</v>
+        <v>77.19385771226062</v>
       </c>
       <c r="L16" t="n">
         <v>154.868868636435</v>
@@ -35887,7 +35887,7 @@
         <v>346.8277240532389</v>
       </c>
       <c r="L17" t="n">
-        <v>483.0751345783559</v>
+        <v>483.0751345783558</v>
       </c>
       <c r="M17" t="n">
         <v>554.2884541885273</v>
@@ -35896,13 +35896,13 @@
         <v>548.4776253672142</v>
       </c>
       <c r="O17" t="n">
-        <v>472.2677900230917</v>
+        <v>472.2677900230916</v>
       </c>
       <c r="P17" t="n">
         <v>365.0147002533926</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.109060942632</v>
+        <v>196.1090609426319</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>95.73002363555609</v>
       </c>
       <c r="K18" t="n">
         <v>291.5176995771038</v>
@@ -35972,10 +35972,10 @@
         <v>582.3080451171506</v>
       </c>
       <c r="N18" t="n">
-        <v>613.5856764480761</v>
+        <v>144.5476553777447</v>
       </c>
       <c r="O18" t="n">
-        <v>120.9164791352899</v>
+        <v>494.2244765700651</v>
       </c>
       <c r="P18" t="n">
         <v>379.4838982112369</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>77.19385771226064</v>
+        <v>77.19385771226062</v>
       </c>
       <c r="L19" t="n">
         <v>154.868868636435</v>
@@ -36124,7 +36124,7 @@
         <v>346.8277240532389</v>
       </c>
       <c r="L20" t="n">
-        <v>483.0751345783559</v>
+        <v>483.0751345783558</v>
       </c>
       <c r="M20" t="n">
         <v>554.2884541885273</v>
@@ -36133,7 +36133,7 @@
         <v>548.4776253672142</v>
       </c>
       <c r="O20" t="n">
-        <v>472.2677900230917</v>
+        <v>472.2677900230916</v>
       </c>
       <c r="P20" t="n">
         <v>365.0147002533926</v>
@@ -36200,7 +36200,7 @@
         <v>91.60210571120365</v>
       </c>
       <c r="K21" t="n">
-        <v>27.0524625645252</v>
+        <v>27.05246256452517</v>
       </c>
       <c r="L21" t="n">
         <v>454.0061653139661</v>
@@ -36212,7 +36212,7 @@
         <v>613.5856764480761</v>
       </c>
       <c r="O21" t="n">
-        <v>494.2244765700652</v>
+        <v>494.2244765700651</v>
       </c>
       <c r="P21" t="n">
         <v>379.4838982112369</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>77.19385771226064</v>
+        <v>77.19385771226062</v>
       </c>
       <c r="L22" t="n">
         <v>154.868868636435</v>
@@ -36361,7 +36361,7 @@
         <v>346.8277240532389</v>
       </c>
       <c r="L23" t="n">
-        <v>483.0751345783559</v>
+        <v>483.0751345783558</v>
       </c>
       <c r="M23" t="n">
         <v>554.2884541885273</v>
@@ -36370,13 +36370,13 @@
         <v>548.4776253672142</v>
       </c>
       <c r="O23" t="n">
-        <v>472.2677900230917</v>
+        <v>472.2677900230916</v>
       </c>
       <c r="P23" t="n">
         <v>365.0147002533926</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.109060942632</v>
+        <v>196.1090609426319</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>118.6545682757288</v>
+        <v>291.5176995771038</v>
       </c>
       <c r="L24" t="n">
         <v>454.0061653139661</v>
@@ -36446,10 +36446,10 @@
         <v>582.3080451171506</v>
       </c>
       <c r="N24" t="n">
-        <v>613.5856764480761</v>
+        <v>440.7225451467012</v>
       </c>
       <c r="O24" t="n">
-        <v>494.2244765700652</v>
+        <v>494.2244765700651</v>
       </c>
       <c r="P24" t="n">
         <v>379.4838982112369</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>77.19385771226064</v>
+        <v>77.19385771226062</v>
       </c>
       <c r="L25" t="n">
         <v>154.868868636435</v>
@@ -36598,7 +36598,7 @@
         <v>346.8277240532389</v>
       </c>
       <c r="L26" t="n">
-        <v>483.0751345783559</v>
+        <v>483.0751345783558</v>
       </c>
       <c r="M26" t="n">
         <v>554.2884541885273</v>
@@ -36607,13 +36607,13 @@
         <v>548.4776253672142</v>
       </c>
       <c r="O26" t="n">
-        <v>472.2677900230917</v>
+        <v>472.2677900230916</v>
       </c>
       <c r="P26" t="n">
         <v>365.0147002533926</v>
       </c>
       <c r="Q26" t="n">
-        <v>196.109060942632</v>
+        <v>196.1090609426319</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>27.0524625645252</v>
+        <v>291.5176995771038</v>
       </c>
       <c r="L27" t="n">
         <v>454.0061653139661</v>
@@ -36686,13 +36686,13 @@
         <v>613.5856764480761</v>
       </c>
       <c r="O27" t="n">
-        <v>494.2244765700652</v>
+        <v>120.9164791352904</v>
       </c>
       <c r="P27" t="n">
         <v>379.4838982112369</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.60210571120373</v>
+        <v>200.4448661334</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>77.19385771226064</v>
+        <v>77.19385771226062</v>
       </c>
       <c r="L28" t="n">
         <v>154.868868636435</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>150.0348017533981</v>
+        <v>150.034801753399</v>
       </c>
       <c r="K29" t="n">
         <v>346.8277240532389</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>291.5176995771038</v>
+        <v>27.05246256452523</v>
       </c>
       <c r="L30" t="n">
-        <v>454.0061653139661</v>
+        <v>345.1634048917693</v>
       </c>
       <c r="M30" t="n">
         <v>582.3080451171506</v>
       </c>
       <c r="N30" t="n">
-        <v>613.5856764480761</v>
+        <v>613.5856764480762</v>
       </c>
       <c r="O30" t="n">
         <v>494.2244765700652</v>
       </c>
       <c r="P30" t="n">
-        <v>61.02112957129978</v>
+        <v>379.4838982112369</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.5996373385621</v>
+        <v>200.4448661334</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>154.868868636435</v>
       </c>
       <c r="M31" t="n">
-        <v>173.7815714912778</v>
+        <v>173.7815714912779</v>
       </c>
       <c r="N31" t="n">
         <v>175.1389456793515</v>
@@ -37005,7 +37005,7 @@
         <v>145.5910871174087</v>
       </c>
       <c r="P31" t="n">
-        <v>100.8200617887949</v>
+        <v>100.820061788795</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>150.0348017533981</v>
+        <v>150.0348017533982</v>
       </c>
       <c r="K32" t="n">
         <v>346.8277240532389</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>95.73002363555612</v>
       </c>
       <c r="K33" t="n">
         <v>291.5176995771038</v>
       </c>
       <c r="L33" t="n">
-        <v>454.0061653139661</v>
+        <v>454.0061653139662</v>
       </c>
       <c r="M33" t="n">
         <v>582.3080451171506</v>
       </c>
       <c r="N33" t="n">
-        <v>240.2776790133014</v>
+        <v>613.5856764480762</v>
       </c>
       <c r="O33" t="n">
-        <v>494.2244765700652</v>
+        <v>100.3621572933357</v>
       </c>
       <c r="P33" t="n">
         <v>379.4838982112369</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.4448661334</v>
+        <v>125.2691643397983</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>154.868868636435</v>
       </c>
       <c r="M34" t="n">
-        <v>173.7815714912778</v>
+        <v>173.7815714912779</v>
       </c>
       <c r="N34" t="n">
         <v>175.1389456793515</v>
@@ -37242,7 +37242,7 @@
         <v>145.5910871174087</v>
       </c>
       <c r="P34" t="n">
-        <v>100.8200617887949</v>
+        <v>100.820061788795</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>150.0348017533981</v>
+        <v>150.034801753399</v>
       </c>
       <c r="K35" t="n">
         <v>346.8277240532389</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>95.73002363555612</v>
       </c>
       <c r="K36" t="n">
-        <v>27.0524625645252</v>
+        <v>291.5176995771038</v>
       </c>
       <c r="L36" t="n">
-        <v>454.0061653139661</v>
+        <v>454.0061653139662</v>
       </c>
       <c r="M36" t="n">
         <v>582.3080451171506</v>
       </c>
       <c r="N36" t="n">
-        <v>613.5856764480761</v>
+        <v>144.5476553777447</v>
       </c>
       <c r="O36" t="n">
         <v>494.2244765700652</v>
@@ -37403,7 +37403,7 @@
         <v>379.4838982112369</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.60210571120373</v>
+        <v>200.4448661334</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>154.868868636435</v>
       </c>
       <c r="M37" t="n">
-        <v>173.7815714912778</v>
+        <v>173.7815714912779</v>
       </c>
       <c r="N37" t="n">
         <v>175.1389456793515</v>
@@ -37479,7 +37479,7 @@
         <v>145.5910871174087</v>
       </c>
       <c r="P37" t="n">
-        <v>100.8200617887949</v>
+        <v>100.820061788795</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>483.0751345783559</v>
       </c>
       <c r="M38" t="n">
-        <v>554.2884541885273</v>
+        <v>554.288454188528</v>
       </c>
       <c r="N38" t="n">
         <v>548.4776253672142</v>
@@ -37637,10 +37637,10 @@
         <v>494.2244765700652</v>
       </c>
       <c r="P39" t="n">
-        <v>61.02112957129978</v>
+        <v>206.6207669098616</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.5996373385621</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>346.8277240532389</v>
       </c>
       <c r="L41" t="n">
-        <v>65.41392002790542</v>
+        <v>483.0751345783559</v>
       </c>
       <c r="M41" t="n">
         <v>554.2884541885273</v>
@@ -37792,13 +37792,13 @@
         <v>548.4776253672142</v>
       </c>
       <c r="O41" t="n">
-        <v>472.2677900230917</v>
+        <v>222.1867206117911</v>
       </c>
       <c r="P41" t="n">
         <v>365.0147002533926</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.5801451391497</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>95.73002363555612</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>291.5176995771038</v>
+        <v>27.05246256452523</v>
       </c>
       <c r="L42" t="n">
-        <v>454.0061653139662</v>
+        <v>345.1634048917689</v>
       </c>
       <c r="M42" t="n">
         <v>582.3080451171506</v>
@@ -37874,10 +37874,10 @@
         <v>494.2244765700652</v>
       </c>
       <c r="P42" t="n">
-        <v>61.02112957129978</v>
+        <v>379.4838982112369</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.86961370300516</v>
+        <v>200.4448661334</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>346.8277240532389</v>
+        <v>246.7814563953366</v>
       </c>
       <c r="L44" t="n">
         <v>483.0751345783559</v>
@@ -38032,7 +38032,7 @@
         <v>472.2677900230917</v>
       </c>
       <c r="P44" t="n">
-        <v>264.9684325954902</v>
+        <v>365.0147002533926</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>95.73002363555612</v>
       </c>
       <c r="K45" t="n">
-        <v>118.6545682757283</v>
+        <v>291.5176995771038</v>
       </c>
       <c r="L45" t="n">
         <v>454.0061653139662</v>
@@ -38105,7 +38105,7 @@
         <v>582.3080451171506</v>
       </c>
       <c r="N45" t="n">
-        <v>613.5856764480762</v>
+        <v>144.5476553777443</v>
       </c>
       <c r="O45" t="n">
         <v>494.2244765700652</v>
@@ -38114,7 +38114,7 @@
         <v>379.4838982112369</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>200.4448661334</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
